--- a/data/Real estate valuation data set.xlsx
+++ b/data/Real estate valuation data set.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippo/Desktop/UNI/3°SGI/Sistemi informativi/vscode/progetto/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39388781-EF55-604F-846F-FA434FF75F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20016" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,25 +57,19 @@
     <t>Y house price of unit area</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>Totale complessivo</t>
-  </si>
-  <si>
-    <t>Etichette di riga</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -100,7 +89,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -158,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,19 +163,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,6972 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Filippo" refreshedDate="45750.424598495367" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="414" xr:uid="{ED121F72-EFC5-F84A-A446-7777E82242DC}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H415" sheet="工作表1"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="414"/>
-    </cacheField>
-    <cacheField name="X1 transaction date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2012.6666667" maxValue="2013.5833333"/>
-    </cacheField>
-    <cacheField name="X2 house age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="43.8" count="236">
-        <n v="32"/>
-        <n v="19.5"/>
-        <n v="13.3"/>
-        <n v="5"/>
-        <n v="7.1"/>
-        <n v="34.5"/>
-        <n v="20.3"/>
-        <n v="31.7"/>
-        <n v="17.899999999999999"/>
-        <n v="34.799999999999997"/>
-        <n v="6.3"/>
-        <n v="13"/>
-        <n v="20.399999999999999"/>
-        <n v="13.2"/>
-        <n v="35.700000000000003"/>
-        <n v="0"/>
-        <n v="17.7"/>
-        <n v="16.899999999999999"/>
-        <n v="1.5"/>
-        <n v="4.5"/>
-        <n v="10.5"/>
-        <n v="14.7"/>
-        <n v="10.1"/>
-        <n v="39.6"/>
-        <n v="29.3"/>
-        <n v="3.1"/>
-        <n v="10.4"/>
-        <n v="19.2"/>
-        <n v="25.9"/>
-        <n v="29.6"/>
-        <n v="37.9"/>
-        <n v="16.5"/>
-        <n v="15.4"/>
-        <n v="13.9"/>
-        <n v="12"/>
-        <n v="16.2"/>
-        <n v="13.6"/>
-        <n v="16.8"/>
-        <n v="36.1"/>
-        <n v="34.4"/>
-        <n v="2.7"/>
-        <n v="36.6"/>
-        <n v="21.7"/>
-        <n v="35.9"/>
-        <n v="24.2"/>
-        <n v="29.4"/>
-        <n v="31.3"/>
-        <n v="32.1"/>
-        <n v="16.100000000000001"/>
-        <n v="33.6"/>
-        <n v="3.5"/>
-        <n v="30.3"/>
-        <n v="11"/>
-        <n v="5.3"/>
-        <n v="17.2"/>
-        <n v="2.6"/>
-        <n v="17.5"/>
-        <n v="40.1"/>
-        <n v="1"/>
-        <n v="8.5"/>
-        <n v="30.4"/>
-        <n v="12.5"/>
-        <n v="6.6"/>
-        <n v="35.5"/>
-        <n v="32.5"/>
-        <n v="13.8"/>
-        <n v="6.8"/>
-        <n v="12.3"/>
-        <n v="20.5"/>
-        <n v="38.200000000000003"/>
-        <n v="18"/>
-        <n v="11.8"/>
-        <n v="30.8"/>
-        <n v="25.3"/>
-        <n v="15.1"/>
-        <n v="1.8"/>
-        <n v="8.9"/>
-        <n v="23"/>
-        <n v="9.1"/>
-        <n v="20.6"/>
-        <n v="31.9"/>
-        <n v="40.9"/>
-        <n v="8"/>
-        <n v="6.4"/>
-        <n v="28.4"/>
-        <n v="16.399999999999999"/>
-        <n v="12.7"/>
-        <n v="1.1000000000000001"/>
-        <n v="32.700000000000003"/>
-        <n v="12.2"/>
-        <n v="31.4"/>
-        <n v="4"/>
-        <n v="8.1"/>
-        <n v="33.299999999999997"/>
-        <n v="9.9"/>
-        <n v="14.8"/>
-        <n v="30.6"/>
-        <n v="30.9"/>
-        <n v="16.600000000000001"/>
-        <n v="31.5"/>
-        <n v="38.6"/>
-        <n v="3.8"/>
-        <n v="41.3"/>
-        <n v="38.5"/>
-        <n v="26.6"/>
-        <n v="33.4"/>
-        <n v="18.899999999999999"/>
-        <n v="11.4"/>
-        <n v="10"/>
-        <n v="12.9"/>
-        <n v="5.0999999999999996"/>
-        <n v="19.8"/>
-        <n v="11.9"/>
-        <n v="2.1"/>
-        <n v="3.2"/>
-        <n v="34.9"/>
-        <n v="35.799999999999997"/>
-        <n v="4.9000000000000004"/>
-        <n v="6.5"/>
-        <n v="30.7"/>
-        <n v="11.6"/>
-        <n v="15.5"/>
-        <n v="16"/>
-        <n v="13.7"/>
-        <n v="28.2"/>
-        <n v="27.6"/>
-        <n v="8.4"/>
-        <n v="24"/>
-        <n v="3.6"/>
-        <n v="4.3"/>
-        <n v="30.2"/>
-        <n v="33"/>
-        <n v="13.1"/>
-        <n v="14"/>
-        <n v="26.9"/>
-        <n v="13.5"/>
-        <n v="17"/>
-        <n v="14.1"/>
-        <n v="20.9"/>
-        <n v="16.3"/>
-        <n v="35.299999999999997"/>
-        <n v="43.8"/>
-        <n v="9.6999999999999993"/>
-        <n v="15.2"/>
-        <n v="22.8"/>
-        <n v="34"/>
-        <n v="18.2"/>
-        <n v="17.399999999999999"/>
-        <n v="38.299999999999997"/>
-        <n v="15.6"/>
-        <n v="12.8"/>
-        <n v="22.2"/>
-        <n v="11.5"/>
-        <n v="5.2"/>
-        <n v="17.600000000000001"/>
-        <n v="6.2"/>
-        <n v="18.100000000000001"/>
-        <n v="37.799999999999997"/>
-        <n v="28"/>
-        <n v="37.200000000000003"/>
-        <n v="9"/>
-        <n v="32.4"/>
-        <n v="31"/>
-        <n v="27.1"/>
-        <n v="39.700000000000003"/>
-        <n v="2"/>
-        <n v="32.799999999999997"/>
-        <n v="4.8"/>
-        <n v="7.5"/>
-        <n v="19"/>
-        <n v="39.200000000000003"/>
-        <n v="5.9"/>
-        <n v="14.6"/>
-        <n v="17.3"/>
-        <n v="15.9"/>
-        <n v="3.9"/>
-        <n v="32.6"/>
-        <n v="15.7"/>
-        <n v="17.8"/>
-        <n v="34.700000000000003"/>
-        <n v="10.8"/>
-        <n v="27.5"/>
-        <n v="19.100000000000001"/>
-        <n v="21.2"/>
-        <n v="2.2999999999999998"/>
-        <n v="4.7"/>
-        <n v="33.5"/>
-        <n v="15"/>
-        <n v="30.1"/>
-        <n v="37.700000000000003"/>
-        <n v="3.4"/>
-        <n v="12.6"/>
-        <n v="26.4"/>
-        <n v="16.7"/>
-        <n v="33.200000000000003"/>
-        <n v="2.5"/>
-        <n v="38"/>
-        <n v="20"/>
-        <n v="14.4"/>
-        <n v="10.3"/>
-        <n v="21.3"/>
-        <n v="35.4"/>
-        <n v="8.3000000000000007"/>
-        <n v="3.7"/>
-        <n v="34.6"/>
-        <n v="28.6"/>
-        <n v="12.4"/>
-        <n v="4.0999999999999996"/>
-        <n v="25.6"/>
-        <n v="39.799999999999997"/>
-        <n v="7.8"/>
-        <n v="30"/>
-        <n v="27.3"/>
-        <n v="1.7"/>
-        <n v="5.7"/>
-        <n v="4.5999999999999996"/>
-        <n v="18.399999999999999"/>
-        <n v="5.6"/>
-        <n v="32.9"/>
-        <n v="41.4"/>
-        <n v="17.100000000000001"/>
-        <n v="32.299999999999997"/>
-        <n v="14.2"/>
-        <n v="20.2"/>
-        <n v="33.9"/>
-        <n v="5.4"/>
-        <n v="37.299999999999997"/>
-        <n v="29.1"/>
-        <n v="18.3"/>
-        <n v="42.7"/>
-        <n v="37.1"/>
-        <n v="26.8"/>
-        <n v="7.6"/>
-        <n v="1.9"/>
-        <n v="18.5"/>
-        <n v="18.8"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="X3 distance to the nearest MRT station" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="23.382840000000002" maxValue="6488.0209999999997" count="259">
-        <n v="84.878820000000005"/>
-        <n v="306.59469999999999"/>
-        <n v="561.98450000000003"/>
-        <n v="390.5684"/>
-        <n v="2175.0300000000002"/>
-        <n v="623.47310000000004"/>
-        <n v="287.60250000000002"/>
-        <n v="5512.0379999999996"/>
-        <n v="1783.18"/>
-        <n v="405.21339999999998"/>
-        <n v="90.456059999999994"/>
-        <n v="492.23129999999998"/>
-        <n v="2469.645"/>
-        <n v="1164.838"/>
-        <n v="579.20830000000001"/>
-        <n v="292.99779999999998"/>
-        <n v="350.85149999999999"/>
-        <n v="368.13630000000001"/>
-        <n v="23.382840000000002"/>
-        <n v="2275.877"/>
-        <n v="279.17259999999999"/>
-        <n v="1360.1389999999999"/>
-        <n v="480.6977"/>
-        <n v="1487.8679999999999"/>
-        <n v="383.86239999999998"/>
-        <n v="276.44900000000001"/>
-        <n v="557.47799999999995"/>
-        <n v="451.24380000000002"/>
-        <n v="4519.6899999999996"/>
-        <n v="769.40340000000003"/>
-        <n v="488.5727"/>
-        <n v="323.65499999999997"/>
-        <n v="205.36699999999999"/>
-        <n v="4079.4180000000001"/>
-        <n v="1935.009"/>
-        <n v="577.9615"/>
-        <n v="289.32479999999998"/>
-        <n v="4082.0149999999999"/>
-        <n v="4066.587"/>
-        <n v="519.46169999999995"/>
-        <n v="512.78710000000001"/>
-        <n v="533.47619999999995"/>
-        <n v="488.8193"/>
-        <n v="463.96230000000003"/>
-        <n v="640.73910000000001"/>
-        <n v="4605.7489999999998"/>
-        <n v="4510.3590000000004"/>
-        <n v="512.54870000000005"/>
-        <n v="1758.4059999999999"/>
-        <n v="1438.579"/>
-        <n v="1160.6320000000001"/>
-        <n v="371.24950000000001"/>
-        <n v="56.474249999999998"/>
-        <n v="336.0532"/>
-        <n v="1931.2070000000001"/>
-        <n v="259.66070000000002"/>
-        <n v="2175.877"/>
-        <n v="995.75540000000001"/>
-        <n v="123.74290000000001"/>
-        <n v="193.58449999999999"/>
-        <n v="104.81010000000001"/>
-        <n v="464.22300000000001"/>
-        <n v="424.54419999999999"/>
-        <n v="379.5575"/>
-        <n v="616.40039999999999"/>
-        <n v="2185.1280000000002"/>
-        <n v="552.43709999999999"/>
-        <n v="1414.837"/>
-        <n v="377.79559999999998"/>
-        <n v="150.93469999999999"/>
-        <n v="2707.3919999999998"/>
-        <n v="383.28050000000002"/>
-        <n v="338.96789999999999"/>
-        <n v="1455.798"/>
-        <n v="1406.43"/>
-        <n v="3947.9450000000002"/>
-        <n v="274.01440000000002"/>
-        <n v="1402.0160000000001"/>
-        <n v="1146.329"/>
-        <n v="167.59889999999999"/>
-        <n v="617.44240000000002"/>
-        <n v="964.74959999999999"/>
-        <n v="170.12889999999999"/>
-        <n v="208.3905"/>
-        <n v="392.44589999999999"/>
-        <n v="189.5181"/>
-        <n v="592.50059999999996"/>
-        <n v="2147.3760000000002"/>
-        <n v="196.6172"/>
-        <n v="2102.4270000000001"/>
-        <n v="393.26060000000001"/>
-        <n v="143.8383"/>
-        <n v="737.91610000000003"/>
-        <n v="6396.2830000000004"/>
-        <n v="4197.3490000000002"/>
-        <n v="1583.722"/>
-        <n v="414.94760000000002"/>
-        <n v="185.42959999999999"/>
-        <n v="804.68970000000002"/>
-        <n v="124.99120000000001"/>
-        <n v="216.8329"/>
-        <n v="535.52700000000004"/>
-        <n v="482.75810000000001"/>
-        <n v="373.39370000000002"/>
-        <n v="186.96860000000001"/>
-        <n v="1009.235"/>
-        <n v="319.07080000000002"/>
-        <n v="942.46640000000002"/>
-        <n v="1559.827"/>
-        <n v="640.60709999999995"/>
-        <n v="489.88209999999998"/>
-        <n v="3780.59"/>
-        <n v="179.4538"/>
-        <n v="170.7311"/>
-        <n v="387.77210000000002"/>
-        <n v="376.17090000000002"/>
-        <n v="1264.73"/>
-        <n v="815.93140000000005"/>
-        <n v="49.661050000000003"/>
-        <n v="1236.5640000000001"/>
-        <n v="330.08539999999999"/>
-        <n v="515.11220000000003"/>
-        <n v="1962.6279999999999"/>
-        <n v="4527.6869999999999"/>
-        <n v="401.88069999999999"/>
-        <n v="432.0385"/>
-        <n v="472.17450000000002"/>
-        <n v="4573.7790000000005"/>
-        <n v="181.07660000000001"/>
-        <n v="1144.4359999999999"/>
-        <n v="438.85129999999998"/>
-        <n v="4449.2700000000004"/>
-        <n v="201.8939"/>
-        <n v="2615.4650000000001"/>
-        <n v="1447.2860000000001"/>
-        <n v="3078.1759999999999"/>
-        <n v="190.03919999999999"/>
-        <n v="616.57349999999997"/>
-        <n v="750.07039999999995"/>
-        <n v="57.589449999999999"/>
-        <n v="421.47899999999998"/>
-        <n v="3771.895"/>
-        <n v="461.10160000000002"/>
-        <n v="707.9067"/>
-        <n v="126.7286"/>
-        <n v="157.6052"/>
-        <n v="451.64190000000002"/>
-        <n v="642.69849999999997"/>
-        <n v="1449.722"/>
-        <n v="665.06359999999995"/>
-        <n v="175.6294"/>
-        <n v="1805.665"/>
-        <n v="383.71289999999999"/>
-        <n v="590.92920000000004"/>
-        <n v="372.62419999999997"/>
-        <n v="529.77710000000002"/>
-        <n v="186.51009999999999"/>
-        <n v="431.1114"/>
-        <n v="324.94189999999998"/>
-        <n v="265.0609"/>
-        <n v="3171.3290000000002"/>
-        <n v="1156.412"/>
-        <n v="4074.7359999999999"/>
-        <n v="4412.7650000000003"/>
-        <n v="333.36790000000002"/>
-        <n v="2216.6120000000001"/>
-        <n v="250.631"/>
-        <n v="373.83890000000002"/>
-        <n v="732.8528"/>
-        <n v="837.72329999999999"/>
-        <n v="1712.6320000000001"/>
-        <n v="2077.39"/>
-        <n v="204.1705"/>
-        <n v="639.61980000000005"/>
-        <n v="389.82190000000003"/>
-        <n v="1055.067"/>
-        <n v="6306.1530000000002"/>
-        <n v="424.71319999999997"/>
-        <n v="1159.454"/>
-        <n v="1735.595"/>
-        <n v="329.97469999999998"/>
-        <n v="339.22890000000001"/>
-        <n v="444.13339999999999"/>
-        <n v="1485.097"/>
-        <n v="2288.011"/>
-        <n v="493.65699999999998"/>
-        <n v="252.5822"/>
-        <n v="394.01729999999998"/>
-        <n v="1554.25"/>
-        <n v="184.33019999999999"/>
-        <n v="1978.671"/>
-        <n v="718.29369999999994"/>
-        <n v="323.69119999999998"/>
-        <n v="490.34460000000001"/>
-        <n v="395.67469999999997"/>
-        <n v="335.52730000000003"/>
-        <n v="2179.59"/>
-        <n v="567.03489999999999"/>
-        <n v="121.72620000000001"/>
-        <n v="156.24420000000001"/>
-        <n v="461.78480000000002"/>
-        <n v="439.71050000000002"/>
-        <n v="1626.0830000000001"/>
-        <n v="169.9803"/>
-        <n v="3079.89"/>
-        <n v="1643.499"/>
-        <n v="537.7971"/>
-        <n v="318.5292"/>
-        <n v="1756.4110000000001"/>
-        <n v="752.76689999999996"/>
-        <n v="272.67829999999998"/>
-        <n v="187.48230000000001"/>
-        <n v="197.13380000000001"/>
-        <n v="757.33770000000004"/>
-        <n v="1497.713"/>
-        <n v="1156.777"/>
-        <n v="617.71339999999998"/>
-        <n v="1013.341"/>
-        <n v="337.60160000000002"/>
-        <n v="1867.2329999999999"/>
-        <n v="600.86040000000003"/>
-        <n v="258.18599999999998"/>
-        <n v="270.8895"/>
-        <n v="563.28539999999998"/>
-        <n v="3085.17"/>
-        <n v="6488.0209999999997"/>
-        <n v="2180.2449999999999"/>
-        <n v="2674.9609999999998"/>
-        <n v="211.44730000000001"/>
-        <n v="2408.9929999999999"/>
-        <n v="87.302220000000005"/>
-        <n v="281.20499999999998"/>
-        <n v="967.4"/>
-        <n v="109.9455"/>
-        <n v="614.13940000000002"/>
-        <n v="2261.4319999999998"/>
-        <n v="1801.5440000000001"/>
-        <n v="1828.319"/>
-        <n v="312.8963"/>
-        <n v="1157.9880000000001"/>
-        <n v="1717.193"/>
-        <n v="587.8877"/>
-        <n v="132.54689999999999"/>
-        <n v="3529.5639999999999"/>
-        <n v="506.11439999999999"/>
-        <n v="82.886430000000004"/>
-        <n v="2103.5549999999998"/>
-        <n v="2251.9380000000001"/>
-        <n v="122.36190000000001"/>
-        <n v="377.83019999999999"/>
-        <n v="1939.749"/>
-        <n v="443.80200000000002"/>
-        <n v="4136.2709999999997"/>
-        <n v="918.63570000000004"/>
-        <n v="161.94200000000001"/>
-        <n v="130.99449999999999"/>
-        <n v="372.1386"/>
-        <n v="2175.7440000000001"/>
-        <n v="390.96960000000001"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="X4 number of convenience stores" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10" count="11">
-        <n v="10"/>
-        <n v="9"/>
-        <n v="5"/>
-        <n v="3"/>
-        <n v="7"/>
-        <n v="6"/>
-        <n v="1"/>
-        <n v="4"/>
-        <n v="2"/>
-        <n v="8"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="X5 latitude" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.93207" maxValue="25.014589999999998" count="234">
-        <n v="24.982980000000001"/>
-        <n v="24.980340000000002"/>
-        <n v="24.987459999999999"/>
-        <n v="24.979369999999999"/>
-        <n v="24.963049999999999"/>
-        <n v="24.979330000000001"/>
-        <n v="24.980419999999999"/>
-        <n v="24.950949999999999"/>
-        <n v="24.967310000000001"/>
-        <n v="24.973490000000002"/>
-        <n v="24.974329999999998"/>
-        <n v="24.965150000000001"/>
-        <n v="24.961079999999999"/>
-        <n v="24.99156"/>
-        <n v="24.982399999999998"/>
-        <n v="24.977440000000001"/>
-        <n v="24.975439999999999"/>
-        <n v="24.967500000000001"/>
-        <n v="24.96772"/>
-        <n v="24.963139999999999"/>
-        <n v="24.975280000000001"/>
-        <n v="24.95204"/>
-        <n v="24.97353"/>
-        <n v="24.97542"/>
-        <n v="24.98085"/>
-        <n v="24.955929999999999"/>
-        <n v="24.97419"/>
-        <n v="24.975629999999999"/>
-        <n v="24.948260000000001"/>
-        <n v="24.982810000000001"/>
-        <n v="24.97841"/>
-        <n v="24.984190000000002"/>
-        <n v="25.014589999999998"/>
-        <n v="24.96386"/>
-        <n v="24.972010000000001"/>
-        <n v="24.982030000000002"/>
-        <n v="24.941549999999999"/>
-        <n v="24.942969999999999"/>
-        <n v="24.987480000000001"/>
-        <n v="24.974450000000001"/>
-        <n v="24.97015"/>
-        <n v="24.970300000000002"/>
-        <n v="24.946840000000002"/>
-        <n v="24.949249999999999"/>
-        <n v="24.974"/>
-        <n v="24.95402"/>
-        <n v="24.949680000000001"/>
-        <n v="24.972539999999999"/>
-        <n v="24.957439999999998"/>
-        <n v="24.95776"/>
-        <n v="24.963650000000001"/>
-        <n v="24.975850000000001"/>
-        <n v="24.96303"/>
-        <n v="24.97635"/>
-        <n v="24.965710000000001"/>
-        <n v="24.966740000000001"/>
-        <n v="24.97964"/>
-        <n v="24.97587"/>
-        <n v="24.983429999999998"/>
-        <n v="24.977229999999999"/>
-        <n v="24.96322"/>
-        <n v="24.97598"/>
-        <n v="24.951820000000001"/>
-        <n v="24.964269999999999"/>
-        <n v="24.96725"/>
-        <n v="24.960560000000001"/>
-        <n v="24.96735"/>
-        <n v="24.968530000000001"/>
-        <n v="24.9512"/>
-        <n v="24.98573"/>
-        <n v="24.94783"/>
-        <n v="24.974799999999998"/>
-        <n v="24.985690000000002"/>
-        <n v="24.949200000000001"/>
-        <n v="24.9663"/>
-        <n v="24.977460000000001"/>
-        <n v="24.988720000000001"/>
-        <n v="24.973710000000001"/>
-        <n v="24.95618"/>
-        <n v="24.963979999999999"/>
-        <n v="24.977070000000001"/>
-        <n v="24.9726"/>
-        <n v="24.962990000000001"/>
-        <n v="24.97701"/>
-        <n v="24.960439999999998"/>
-        <n v="24.96172"/>
-        <n v="24.981549999999999"/>
-        <n v="24.980920000000001"/>
-        <n v="24.943750000000001"/>
-        <n v="24.938849999999999"/>
-        <n v="24.96622"/>
-        <n v="24.98199"/>
-        <n v="24.9711"/>
-        <n v="24.978380000000001"/>
-        <n v="24.98086"/>
-        <n v="24.986599999999999"/>
-        <n v="24.96604"/>
-        <n v="24.963570000000001"/>
-        <n v="24.964950000000002"/>
-        <n v="24.978429999999999"/>
-        <n v="24.97213"/>
-        <n v="24.97017"/>
-        <n v="24.932929999999999"/>
-        <n v="24.967189999999999"/>
-        <n v="24.981179999999998"/>
-        <n v="24.954180000000001"/>
-        <n v="24.948830000000001"/>
-        <n v="24.978860000000001"/>
-        <n v="24.958359999999999"/>
-        <n v="24.976939999999999"/>
-        <n v="24.974080000000001"/>
-        <n v="24.95468"/>
-        <n v="24.947410000000001"/>
-        <n v="24.983260000000001"/>
-        <n v="24.980499999999999"/>
-        <n v="24.970050000000001"/>
-        <n v="24.94867"/>
-        <n v="24.976970000000001"/>
-        <n v="24.991759999999999"/>
-        <n v="24.974930000000001"/>
-        <n v="24.948979999999999"/>
-        <n v="24.98489"/>
-        <n v="24.95495"/>
-        <n v="24.972850000000001"/>
-        <n v="24.954640000000001"/>
-        <n v="24.97945"/>
-        <n v="24.98246"/>
-        <n v="24.933630000000001"/>
-        <n v="24.954249999999998"/>
-        <n v="24.981000000000002"/>
-        <n v="24.968810000000001"/>
-        <n v="24.966280000000001"/>
-        <n v="24.969449999999998"/>
-        <n v="24.97559"/>
-        <n v="24.97289"/>
-        <n v="24.97503"/>
-        <n v="24.973469999999999"/>
-        <n v="24.986719999999998"/>
-        <n v="24.972000000000001"/>
-        <n v="24.971530000000001"/>
-        <n v="24.981020000000001"/>
-        <n v="24.977029999999999"/>
-        <n v="24.98123"/>
-        <n v="24.97814"/>
-        <n v="24.980589999999999"/>
-        <n v="25.001149999999999"/>
-        <n v="24.948899999999998"/>
-        <n v="24.942350000000001"/>
-        <n v="24.950320000000001"/>
-        <n v="24.980160000000001"/>
-        <n v="24.960070000000002"/>
-        <n v="24.966059999999999"/>
-        <n v="24.983219999999999"/>
-        <n v="24.976680000000002"/>
-        <n v="24.963339999999999"/>
-        <n v="24.964120000000001"/>
-        <n v="24.98236"/>
-        <n v="24.972580000000001"/>
-        <n v="24.962109999999999"/>
-        <n v="24.957429999999999"/>
-        <n v="24.97429"/>
-        <n v="24.9496"/>
-        <n v="24.964639999999999"/>
-        <n v="24.98254"/>
-        <n v="24.975190000000001"/>
-        <n v="24.975010000000001"/>
-        <n v="24.97073"/>
-        <n v="24.958850000000002"/>
-        <n v="24.96968"/>
-        <n v="24.974599999999999"/>
-        <n v="24.973050000000001"/>
-        <n v="24.97026"/>
-        <n v="24.965810000000001"/>
-        <n v="24.986740000000001"/>
-        <n v="24.975090000000002"/>
-        <n v="24.972169999999998"/>
-        <n v="24.95674"/>
-        <n v="24.979600000000001"/>
-        <n v="24.970030000000001"/>
-        <n v="24.981780000000001"/>
-        <n v="24.96696"/>
-        <n v="24.972290000000001"/>
-        <n v="24.971609999999998"/>
-        <n v="24.973690000000001"/>
-        <n v="24.954599999999999"/>
-        <n v="24.953939999999999"/>
-        <n v="24.974250000000001"/>
-        <n v="24.97071"/>
-        <n v="24.9832"/>
-        <n v="24.97795"/>
-        <n v="24.95562"/>
-        <n v="24.973880000000001"/>
-        <n v="24.976310000000002"/>
-        <n v="24.975380000000001"/>
-        <n v="24.949349999999999"/>
-        <n v="24.975770000000001"/>
-        <n v="24.99006"/>
-        <n v="24.964310000000001"/>
-        <n v="24.984069999999999"/>
-        <n v="24.968710000000002"/>
-        <n v="24.968669999999999"/>
-        <n v="24.972809999999999"/>
-        <n v="24.982230000000001"/>
-        <n v="24.998000000000001"/>
-        <n v="24.957190000000001"/>
-        <n v="24.963239999999999"/>
-        <n v="24.96143"/>
-        <n v="24.974170000000001"/>
-        <n v="24.95505"/>
-        <n v="24.983000000000001"/>
-        <n v="24.97345"/>
-        <n v="24.981819999999999"/>
-        <n v="24.979130000000001"/>
-        <n v="24.961819999999999"/>
-        <n v="24.951530000000002"/>
-        <n v="24.955909999999999"/>
-        <n v="24.961649999999999"/>
-        <n v="24.964469999999999"/>
-        <n v="24.970770000000002"/>
-        <n v="24.93207"/>
-        <n v="24.978449999999999"/>
-        <n v="24.960419999999999"/>
-        <n v="24.959569999999999"/>
-        <n v="24.967559999999999"/>
-        <n v="24.971509999999999"/>
-        <n v="24.951550000000001"/>
-        <n v="24.97927"/>
-        <n v="24.955439999999999"/>
-        <n v="24.971979999999999"/>
-        <n v="24.983529999999998"/>
-        <n v="24.956630000000001"/>
-        <n v="24.972930000000002"/>
-        <n v="24.9633"/>
-        <n v="24.979230000000001"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="X6 longitude" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="121.47353" maxValue="121.56627" count="232">
-        <n v="121.54024"/>
-        <n v="121.53951000000001"/>
-        <n v="121.54391"/>
-        <n v="121.54245"/>
-        <n v="121.51254"/>
-        <n v="121.53642000000001"/>
-        <n v="121.54228000000001"/>
-        <n v="121.48457999999999"/>
-        <n v="121.51486"/>
-        <n v="121.53372"/>
-        <n v="121.5431"/>
-        <n v="121.53737"/>
-        <n v="121.51045999999999"/>
-        <n v="121.53406"/>
-        <n v="121.54619"/>
-        <n v="121.54458"/>
-        <n v="121.53119"/>
-        <n v="121.54451"/>
-        <n v="121.54102"/>
-        <n v="121.51151"/>
-        <n v="121.54541"/>
-        <n v="121.54841999999999"/>
-        <n v="121.53885"/>
-        <n v="121.51725999999999"/>
-        <n v="121.53913"/>
-        <n v="121.53797"/>
-        <n v="121.54694000000001"/>
-        <n v="121.49587"/>
-        <n v="121.53408"/>
-        <n v="121.53451"/>
-        <n v="121.54281"/>
-        <n v="121.54243"/>
-        <n v="121.51815999999999"/>
-        <n v="121.51458"/>
-        <n v="121.54722"/>
-        <n v="121.54348"/>
-        <n v="121.50381"/>
-        <n v="121.50342000000001"/>
-        <n v="121.53758000000001"/>
-        <n v="121.54301"/>
-        <n v="121.54765"/>
-        <n v="121.54494"/>
-        <n v="121.53715"/>
-        <n v="121.49578"/>
-        <n v="121.49542"/>
-        <n v="121.53842"/>
-        <n v="121.55282"/>
-        <n v="121.5175"/>
-        <n v="121.53009"/>
-        <n v="121.54058999999999"/>
-        <n v="121.53711"/>
-        <n v="121.53438"/>
-        <n v="121.51470999999999"/>
-        <n v="121.54516"/>
-        <n v="121.54915"/>
-        <n v="121.54329"/>
-        <n v="121.54089"/>
-        <n v="121.54067000000001"/>
-        <n v="121.53805"/>
-        <n v="121.53762"/>
-        <n v="121.53767000000001"/>
-        <n v="121.51237"/>
-        <n v="121.53381"/>
-        <n v="121.54886999999999"/>
-        <n v="121.53964000000001"/>
-        <n v="121.54252"/>
-        <n v="121.50830999999999"/>
-        <n v="121.54464"/>
-        <n v="121.54413"/>
-        <n v="121.54900000000001"/>
-        <n v="121.52758"/>
-        <n v="121.50243"/>
-        <n v="121.53059"/>
-        <n v="121.52760000000001"/>
-        <n v="121.53076"/>
-        <n v="121.54026"/>
-        <n v="121.53299"/>
-        <n v="121.53411"/>
-        <n v="121.52983999999999"/>
-        <n v="121.53843999999999"/>
-        <n v="121.5425"/>
-        <n v="121.54308"/>
-        <n v="121.53561000000001"/>
-        <n v="121.51284"/>
-        <n v="121.54224000000001"/>
-        <n v="121.51461999999999"/>
-        <n v="121.53812000000001"/>
-        <n v="121.54142"/>
-        <n v="121.54738999999999"/>
-        <n v="121.47883"/>
-        <n v="121.50382999999999"/>
-        <n v="121.51709"/>
-        <n v="121.5317"/>
-        <n v="121.53476999999999"/>
-        <n v="121.54039"/>
-        <n v="121.54161999999999"/>
-        <n v="121.53653"/>
-        <n v="121.53863"/>
-        <n v="121.54082"/>
-        <n v="121.54210999999999"/>
-        <n v="121.54951"/>
-        <n v="121.54277"/>
-        <n v="121.52406000000001"/>
-        <n v="121.51627000000001"/>
-        <n v="121.54647"/>
-        <n v="121.51203"/>
-        <n v="121.54268999999999"/>
-        <n v="121.53788"/>
-        <n v="121.53713"/>
-        <n v="121.52954"/>
-        <n v="121.53464"/>
-        <n v="121.53756"/>
-        <n v="121.55391"/>
-        <n v="121.54011"/>
-        <n v="121.5432"/>
-        <n v="121.55481"/>
-        <n v="121.49628"/>
-        <n v="121.5446"/>
-        <n v="121.53778"/>
-        <n v="121.49507"/>
-        <n v="121.54262"/>
-        <n v="121.53456"/>
-        <n v="121.5273"/>
-        <n v="121.49621"/>
-        <n v="121.54121000000001"/>
-        <n v="121.56174"/>
-        <n v="121.51730000000001"/>
-        <n v="121.56627"/>
-        <n v="121.54312"/>
-        <n v="121.54069"/>
-        <n v="121.54477"/>
-        <n v="121.51158"/>
-        <n v="121.5399"/>
-        <n v="121.54713"/>
-        <n v="121.54196"/>
-        <n v="121.5449"/>
-        <n v="121.51728"/>
-        <n v="121.53691999999999"/>
-        <n v="121.54271"/>
-        <n v="121.52091"/>
-        <n v="121.53559"/>
-        <n v="121.54119"/>
-        <n v="121.53655000000001"/>
-        <n v="121.54264999999999"/>
-        <n v="121.53743"/>
-        <n v="121.54170000000001"/>
-        <n v="121.53986"/>
-        <n v="121.51776"/>
-        <n v="121.53095"/>
-        <n v="121.50357"/>
-        <n v="121.53932"/>
-        <n v="121.51361"/>
-        <n v="121.54297"/>
-        <n v="121.53765"/>
-        <n v="121.52518000000001"/>
-        <n v="121.54767"/>
-        <n v="121.5167"/>
-        <n v="121.51329"/>
-        <n v="121.53923"/>
-        <n v="121.54814"/>
-        <n v="121.54273000000001"/>
-        <n v="121.54928"/>
-        <n v="121.47516"/>
-        <n v="121.53917"/>
-        <n v="121.53018"/>
-        <n v="121.51622999999999"/>
-        <n v="121.54395"/>
-        <n v="121.53151"/>
-        <n v="121.517"/>
-        <n v="121.51358999999999"/>
-        <n v="121.54522"/>
-        <n v="121.53046000000001"/>
-        <n v="121.53994"/>
-        <n v="121.51642"/>
-        <n v="121.54086"/>
-        <n v="121.51844"/>
-        <n v="121.53644"/>
-        <n v="121.5428"/>
-        <n v="121.53471"/>
-        <n v="121.53400000000001"/>
-        <n v="121.5414"/>
-        <n v="121.51251999999999"/>
-        <n v="121.5458"/>
-        <n v="121.53992"/>
-        <n v="121.53445000000001"/>
-        <n v="121.53422999999999"/>
-        <n v="121.51667999999999"/>
-        <n v="121.52979000000001"/>
-        <n v="121.55174"/>
-        <n v="121.53814"/>
-        <n v="121.51812"/>
-        <n v="121.53872"/>
-        <n v="121.52981"/>
-        <n v="121.54436"/>
-        <n v="121.54971"/>
-        <n v="121.51696"/>
-        <n v="121.53475"/>
-        <n v="121.5346"/>
-        <n v="121.54062999999999"/>
-        <n v="121.51748000000001"/>
-        <n v="121.54651"/>
-        <n v="121.54331000000001"/>
-        <n v="121.53265"/>
-        <n v="121.53597000000001"/>
-        <n v="121.5155"/>
-        <n v="121.47353"/>
-        <n v="121.51241"/>
-        <n v="121.50827"/>
-        <n v="121.52999"/>
-        <n v="121.55964"/>
-        <n v="121.54022000000001"/>
-        <n v="121.54093"/>
-        <n v="121.53666"/>
-        <n v="121.51222"/>
-        <n v="121.55253999999999"/>
-        <n v="121.51531"/>
-        <n v="121.53955999999999"/>
-        <n v="121.55011"/>
-        <n v="121.51649"/>
-        <n v="121.54634"/>
-        <n v="121.53981"/>
-        <n v="121.51597"/>
-        <n v="121.53888999999999"/>
-        <n v="121.51353"/>
-        <n v="121.5423"/>
-        <n v="121.54349999999999"/>
-        <n v="121.55387"/>
-        <n v="121.53874"/>
-        <n v="121.49630000000001"/>
-        <n v="121.55063"/>
-        <n v="121.53966"/>
-        <n v="121.51242999999999"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Y house price of unit area" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.6" maxValue="117.5"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="414">
-  <r>
-    <n v="1"/>
-    <n v="2012.9166667"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="37.9"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <n v="2012.9166667"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="42.2"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="2013.5833333"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="47.3"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="2013.5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="54.8"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="2012.8333333"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="43.1"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="2012.6666667"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="32.1"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <n v="2012.6666667"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="40.299999999999997"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="2013.4166667"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="46.7"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <n v="2013.5"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="18.8"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="2013.4166667"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="8"/>
-    <n v="22.1"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="2013.0833333"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="9"/>
-    <n v="41.4"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <n v="2013.3333333"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="58.1"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="2012.9166667"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="39.299999999999997"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="2012.6666667"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="12"/>
-    <n v="23.8"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <n v="2013.5"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="13"/>
-    <x v="13"/>
-    <n v="34.299999999999997"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="2013.5833333"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="8"/>
-    <x v="14"/>
-    <x v="14"/>
-    <n v="50.5"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <n v="2013.25"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="15"/>
-    <n v="70.099999999999994"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <n v="2012.75"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="16"/>
-    <n v="37.4"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <n v="2013.4166667"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="9"/>
-    <x v="17"/>
-    <x v="17"/>
-    <n v="42.3"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <n v="2012.6666667"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="18"/>
-    <n v="47.7"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <n v="2013.4166667"/>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="19"/>
-    <x v="19"/>
-    <n v="29.3"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <n v="2013.4166667"/>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="20"/>
-    <n v="51.6"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <n v="2012.9166667"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="24.6"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <n v="2013.0833333"/>
-    <x v="22"/>
-    <x v="20"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="20"/>
-    <n v="47.9"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="2013"/>
-    <x v="23"/>
-    <x v="22"/>
-    <x v="7"/>
-    <x v="22"/>
-    <x v="22"/>
-    <n v="38.799999999999997"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <n v="2013.0833333"/>
-    <x v="24"/>
-    <x v="23"/>
-    <x v="8"/>
-    <x v="23"/>
-    <x v="23"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <n v="2012.6666667"/>
-    <x v="25"/>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="2"/>
-    <n v="56.2"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <n v="2013.25"/>
-    <x v="26"/>
-    <x v="25"/>
-    <x v="2"/>
-    <x v="25"/>
-    <x v="24"/>
-    <n v="33.6"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <n v="2013.5"/>
-    <x v="27"/>
-    <x v="26"/>
-    <x v="7"/>
-    <x v="26"/>
-    <x v="25"/>
-    <n v="47"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <n v="2013.0833333"/>
-    <x v="4"/>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="27"/>
-    <x v="26"/>
-    <n v="57.1"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <n v="2013.5"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="10"/>
-    <x v="28"/>
-    <x v="27"/>
-    <n v="22.1"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <n v="2012.75"/>
-    <x v="29"/>
-    <x v="29"/>
-    <x v="4"/>
-    <x v="29"/>
-    <x v="28"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <n v="2012.75"/>
-    <x v="30"/>
-    <x v="30"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="29"/>
-    <n v="34.200000000000003"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <n v="2013.25"/>
-    <x v="31"/>
-    <x v="31"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="30"/>
-    <n v="49.3"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <n v="2012.75"/>
-    <x v="32"/>
-    <x v="32"/>
-    <x v="4"/>
-    <x v="31"/>
-    <x v="31"/>
-    <n v="55.1"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <n v="2013.5"/>
-    <x v="33"/>
-    <x v="33"/>
-    <x v="10"/>
-    <x v="32"/>
-    <x v="32"/>
-    <n v="27.3"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <n v="2012.9166667"/>
-    <x v="21"/>
-    <x v="34"/>
-    <x v="8"/>
-    <x v="33"/>
-    <x v="33"/>
-    <n v="22.9"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <n v="2013.1666667"/>
-    <x v="34"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="25.3"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <n v="2012.6666667"/>
-    <x v="25"/>
-    <x v="35"/>
-    <x v="5"/>
-    <x v="34"/>
-    <x v="34"/>
-    <n v="47.7"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <n v="2013.1666667"/>
-    <x v="35"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="46.2"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <n v="2013"/>
-    <x v="36"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="15.9"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <n v="2013.5"/>
-    <x v="37"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="18.2"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <n v="2013.4166667"/>
-    <x v="38"/>
-    <x v="39"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="38"/>
-    <n v="34.700000000000003"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <n v="2012.75"/>
-    <x v="39"/>
-    <x v="40"/>
-    <x v="5"/>
-    <x v="38"/>
-    <x v="39"/>
-    <n v="34.1"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <n v="2013.5833333"/>
-    <x v="40"/>
-    <x v="41"/>
-    <x v="7"/>
-    <x v="39"/>
-    <x v="40"/>
-    <n v="53.9"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <n v="2013.0833333"/>
-    <x v="41"/>
-    <x v="42"/>
-    <x v="9"/>
-    <x v="40"/>
-    <x v="41"/>
-    <n v="38.299999999999997"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <n v="2013.4166667"/>
-    <x v="42"/>
-    <x v="43"/>
-    <x v="1"/>
-    <x v="41"/>
-    <x v="15"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <n v="2013.5833333"/>
-    <x v="43"/>
-    <x v="44"/>
-    <x v="3"/>
-    <x v="27"/>
-    <x v="42"/>
-    <n v="61.5"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <n v="2013.4166667"/>
-    <x v="44"/>
-    <x v="45"/>
-    <x v="10"/>
-    <x v="42"/>
-    <x v="43"/>
-    <n v="13.4"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <n v="2012.6666667"/>
-    <x v="45"/>
-    <x v="46"/>
-    <x v="6"/>
-    <x v="43"/>
-    <x v="44"/>
-    <n v="13.2"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <n v="2013.4166667"/>
-    <x v="42"/>
-    <x v="47"/>
-    <x v="7"/>
-    <x v="44"/>
-    <x v="45"/>
-    <n v="44.2"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <n v="2013.0833333"/>
-    <x v="46"/>
-    <x v="48"/>
-    <x v="6"/>
-    <x v="45"/>
-    <x v="46"/>
-    <n v="20.7"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <n v="2013.5833333"/>
-    <x v="47"/>
-    <x v="49"/>
-    <x v="3"/>
-    <x v="26"/>
-    <x v="47"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <n v="2013.0833333"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="38.9"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <n v="2013.0833333"/>
-    <x v="48"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="51.7"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <n v="2012.8333333"/>
-    <x v="7"/>
-    <x v="50"/>
-    <x v="10"/>
-    <x v="46"/>
-    <x v="48"/>
-    <n v="13.7"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <n v="2013.4166667"/>
-    <x v="49"/>
-    <x v="51"/>
-    <x v="9"/>
-    <x v="47"/>
-    <x v="49"/>
-    <n v="41.9"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <n v="2012.9166667"/>
-    <x v="50"/>
-    <x v="52"/>
-    <x v="4"/>
-    <x v="48"/>
-    <x v="50"/>
-    <n v="53.5"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <n v="2013.5"/>
-    <x v="51"/>
-    <x v="46"/>
-    <x v="6"/>
-    <x v="43"/>
-    <x v="44"/>
-    <n v="22.6"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <n v="2013.0833333"/>
-    <x v="2"/>
-    <x v="53"/>
-    <x v="2"/>
-    <x v="49"/>
-    <x v="51"/>
-    <n v="42.4"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <n v="2013.4166667"/>
-    <x v="52"/>
-    <x v="54"/>
-    <x v="8"/>
-    <x v="50"/>
-    <x v="52"/>
-    <n v="21.3"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <n v="2013.5"/>
-    <x v="53"/>
-    <x v="55"/>
-    <x v="5"/>
-    <x v="51"/>
-    <x v="53"/>
-    <n v="63.2"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <n v="2012.9166667"/>
-    <x v="54"/>
-    <x v="56"/>
-    <x v="3"/>
-    <x v="52"/>
-    <x v="4"/>
-    <n v="27.7"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <n v="2013.5833333"/>
-    <x v="55"/>
-    <x v="41"/>
-    <x v="7"/>
-    <x v="39"/>
-    <x v="40"/>
-    <n v="55"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <n v="2013.3333333"/>
-    <x v="56"/>
-    <x v="57"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="54"/>
-    <n v="25.3"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <n v="2013.4166667"/>
-    <x v="57"/>
-    <x v="58"/>
-    <x v="9"/>
-    <x v="53"/>
-    <x v="55"/>
-    <n v="44.3"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <n v="2013"/>
-    <x v="58"/>
-    <x v="59"/>
-    <x v="5"/>
-    <x v="54"/>
-    <x v="56"/>
-    <n v="50.7"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <n v="2013.5"/>
-    <x v="59"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="56.8"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <n v="2013.4166667"/>
-    <x v="60"/>
-    <x v="61"/>
-    <x v="5"/>
-    <x v="56"/>
-    <x v="58"/>
-    <n v="36.200000000000003"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <n v="2012.8333333"/>
-    <x v="61"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <n v="2013.5833333"/>
-    <x v="62"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="59"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <n v="2013.0833333"/>
-    <x v="63"/>
-    <x v="44"/>
-    <x v="3"/>
-    <x v="27"/>
-    <x v="42"/>
-    <n v="40.799999999999997"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <n v="2013.5833333"/>
-    <x v="64"/>
-    <x v="62"/>
-    <x v="9"/>
-    <x v="57"/>
-    <x v="24"/>
-    <n v="36.299999999999997"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <n v="2013.1666667"/>
-    <x v="65"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <n v="2012.9166667"/>
-    <x v="66"/>
-    <x v="63"/>
-    <x v="0"/>
-    <x v="58"/>
-    <x v="59"/>
-    <n v="54.4"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <n v="2013.5"/>
-    <x v="67"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="29.5"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <n v="2013.5833333"/>
-    <x v="43"/>
-    <x v="64"/>
-    <x v="3"/>
-    <x v="59"/>
-    <x v="60"/>
-    <n v="36.799999999999997"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <n v="2012.8333333"/>
-    <x v="68"/>
-    <x v="65"/>
-    <x v="3"/>
-    <x v="60"/>
-    <x v="61"/>
-    <n v="25.6"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <n v="2012.9166667"/>
-    <x v="69"/>
-    <x v="66"/>
-    <x v="8"/>
-    <x v="61"/>
-    <x v="62"/>
-    <n v="29.8"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <n v="2013"/>
-    <x v="70"/>
-    <x v="67"/>
-    <x v="6"/>
-    <x v="62"/>
-    <x v="63"/>
-    <n v="26.5"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <n v="2013.5"/>
-    <x v="71"/>
-    <x v="41"/>
-    <x v="7"/>
-    <x v="39"/>
-    <x v="40"/>
-    <n v="40.299999999999997"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <n v="2013"/>
-    <x v="72"/>
-    <x v="68"/>
-    <x v="5"/>
-    <x v="63"/>
-    <x v="64"/>
-    <n v="36.799999999999997"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <n v="2013.0833333"/>
-    <x v="13"/>
-    <x v="69"/>
-    <x v="4"/>
-    <x v="64"/>
-    <x v="65"/>
-    <n v="48.1"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <n v="2012.9166667"/>
-    <x v="73"/>
-    <x v="70"/>
-    <x v="3"/>
-    <x v="65"/>
-    <x v="66"/>
-    <n v="17.7"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <n v="2013.0833333"/>
-    <x v="74"/>
-    <x v="71"/>
-    <x v="4"/>
-    <x v="66"/>
-    <x v="67"/>
-    <n v="43.7"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <n v="2012.75"/>
-    <x v="15"/>
-    <x v="72"/>
-    <x v="1"/>
-    <x v="67"/>
-    <x v="68"/>
-    <n v="50.8"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <n v="2012.8333333"/>
-    <x v="75"/>
-    <x v="73"/>
-    <x v="6"/>
-    <x v="68"/>
-    <x v="69"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <n v="2013.5833333"/>
-    <x v="17"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="18.3"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <n v="2012.9166667"/>
-    <x v="76"/>
-    <x v="74"/>
-    <x v="10"/>
-    <x v="69"/>
-    <x v="70"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <n v="2013.5"/>
-    <x v="77"/>
-    <x v="75"/>
-    <x v="10"/>
-    <x v="70"/>
-    <x v="71"/>
-    <n v="25.3"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <n v="2012.8333333"/>
-    <x v="15"/>
-    <x v="76"/>
-    <x v="6"/>
-    <x v="71"/>
-    <x v="72"/>
-    <n v="45.4"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <n v="2013.25"/>
-    <x v="78"/>
-    <x v="77"/>
-    <x v="10"/>
-    <x v="72"/>
-    <x v="73"/>
-    <n v="43.2"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <n v="2012.9166667"/>
-    <x v="79"/>
-    <x v="12"/>
-    <x v="7"/>
-    <x v="12"/>
-    <x v="12"/>
-    <n v="21.8"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <n v="2012.9166667"/>
-    <x v="80"/>
-    <x v="78"/>
-    <x v="10"/>
-    <x v="73"/>
-    <x v="74"/>
-    <n v="16.100000000000001"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <n v="2012.9166667"/>
-    <x v="81"/>
-    <x v="79"/>
-    <x v="2"/>
-    <x v="74"/>
-    <x v="75"/>
-    <n v="41"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <n v="2012.9166667"/>
-    <x v="82"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="51.8"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <n v="2013.4166667"/>
-    <x v="83"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="59.5"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <n v="2013.0833333"/>
-    <x v="84"/>
-    <x v="80"/>
-    <x v="3"/>
-    <x v="75"/>
-    <x v="76"/>
-    <n v="34.6"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <n v="2013.4166667"/>
-    <x v="85"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <n v="2013.4166667"/>
-    <x v="83"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="62.2"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <n v="2013.5"/>
-    <x v="56"/>
-    <x v="81"/>
-    <x v="7"/>
-    <x v="76"/>
-    <x v="77"/>
-    <n v="38.200000000000003"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <n v="2012.8333333"/>
-    <x v="86"/>
-    <x v="82"/>
-    <x v="6"/>
-    <x v="77"/>
-    <x v="78"/>
-    <n v="32.9"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <n v="2013.0833333"/>
-    <x v="87"/>
-    <x v="59"/>
-    <x v="5"/>
-    <x v="54"/>
-    <x v="56"/>
-    <n v="54.4"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <n v="2012.75"/>
-    <x v="15"/>
-    <x v="83"/>
-    <x v="5"/>
-    <x v="78"/>
-    <x v="79"/>
-    <n v="45.7"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <n v="2012.6666667"/>
-    <x v="88"/>
-    <x v="84"/>
-    <x v="5"/>
-    <x v="79"/>
-    <x v="80"/>
-    <n v="30.5"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <n v="2012.8333333"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="15"/>
-    <n v="71"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <n v="2013.0833333"/>
-    <x v="54"/>
-    <x v="85"/>
-    <x v="9"/>
-    <x v="80"/>
-    <x v="81"/>
-    <n v="47.1"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <n v="2013.3333333"/>
-    <x v="89"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="26.6"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <n v="2013.4166667"/>
-    <x v="90"/>
-    <x v="86"/>
-    <x v="8"/>
-    <x v="81"/>
-    <x v="82"/>
-    <n v="34.1"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <n v="2013.5833333"/>
-    <x v="91"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="28.4"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <n v="2013.0833333"/>
-    <x v="92"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="51.6"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <n v="2013.5833333"/>
-    <x v="93"/>
-    <x v="88"/>
-    <x v="4"/>
-    <x v="83"/>
-    <x v="84"/>
-    <n v="39.4"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <n v="2013.4166667"/>
-    <x v="94"/>
-    <x v="89"/>
-    <x v="3"/>
-    <x v="84"/>
-    <x v="85"/>
-    <n v="23.1"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <n v="2013.3333333"/>
-    <x v="95"/>
-    <x v="90"/>
-    <x v="5"/>
-    <x v="85"/>
-    <x v="86"/>
-    <n v="7.6"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <n v="2012.6666667"/>
-    <x v="96"/>
-    <x v="91"/>
-    <x v="9"/>
-    <x v="86"/>
-    <x v="87"/>
-    <n v="53.3"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <n v="2013.0833333"/>
-    <x v="79"/>
-    <x v="92"/>
-    <x v="8"/>
-    <x v="87"/>
-    <x v="88"/>
-    <n v="46.4"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <n v="2013"/>
-    <x v="97"/>
-    <x v="93"/>
-    <x v="6"/>
-    <x v="88"/>
-    <x v="89"/>
-    <n v="12.2"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <n v="2013"/>
-    <x v="36"/>
-    <x v="94"/>
-    <x v="10"/>
-    <x v="89"/>
-    <x v="90"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <n v="2013.5"/>
-    <x v="73"/>
-    <x v="95"/>
-    <x v="3"/>
-    <x v="90"/>
-    <x v="91"/>
-    <n v="30.6"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <n v="2013.5"/>
-    <x v="98"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="59.6"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <n v="2013.1666667"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="31.3"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <n v="2013.5"/>
-    <x v="36"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <n v="2013.25"/>
-    <x v="99"/>
-    <x v="96"/>
-    <x v="7"/>
-    <x v="91"/>
-    <x v="67"/>
-    <n v="32.5"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <n v="2013.4166667"/>
-    <x v="15"/>
-    <x v="97"/>
-    <x v="10"/>
-    <x v="92"/>
-    <x v="92"/>
-    <n v="45.5"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <n v="2012.9166667"/>
-    <x v="94"/>
-    <x v="20"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="20"/>
-    <n v="57.4"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <n v="2013.1666667"/>
-    <x v="87"/>
-    <x v="59"/>
-    <x v="5"/>
-    <x v="54"/>
-    <x v="56"/>
-    <n v="48.6"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <n v="2013.0833333"/>
-    <x v="100"/>
-    <x v="98"/>
-    <x v="7"/>
-    <x v="93"/>
-    <x v="93"/>
-    <n v="62.9"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <n v="2013.25"/>
-    <x v="101"/>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="2"/>
-    <n v="55"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <n v="2013.0833333"/>
-    <x v="102"/>
-    <x v="99"/>
-    <x v="5"/>
-    <x v="55"/>
-    <x v="94"/>
-    <n v="60.7"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <n v="2013.4166667"/>
-    <x v="103"/>
-    <x v="100"/>
-    <x v="4"/>
-    <x v="94"/>
-    <x v="95"/>
-    <n v="41"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <n v="2013.25"/>
-    <x v="29"/>
-    <x v="101"/>
-    <x v="9"/>
-    <x v="87"/>
-    <x v="96"/>
-    <n v="37.5"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <n v="2013.5"/>
-    <x v="91"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="30.7"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <n v="2013.1666667"/>
-    <x v="104"/>
-    <x v="102"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="97"/>
-    <n v="37.5"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <n v="2012.8333333"/>
-    <x v="70"/>
-    <x v="103"/>
-    <x v="9"/>
-    <x v="95"/>
-    <x v="98"/>
-    <n v="39.5"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <n v="2012.6666667"/>
-    <x v="105"/>
-    <x v="104"/>
-    <x v="5"/>
-    <x v="96"/>
-    <x v="99"/>
-    <n v="42.2"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <n v="2012.9166667"/>
-    <x v="106"/>
-    <x v="105"/>
-    <x v="10"/>
-    <x v="97"/>
-    <x v="100"/>
-    <n v="20.8"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <n v="2012.75"/>
-    <x v="107"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="46.8"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <n v="2013.5"/>
-    <x v="36"/>
-    <x v="106"/>
-    <x v="5"/>
-    <x v="98"/>
-    <x v="101"/>
-    <n v="47.4"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <n v="2013.1666667"/>
-    <x v="108"/>
-    <x v="107"/>
-    <x v="10"/>
-    <x v="99"/>
-    <x v="102"/>
-    <n v="43.5"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <n v="2012.6666667"/>
-    <x v="109"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="42.5"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <n v="2013.25"/>
-    <x v="35"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="51.4"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <n v="2013.3333333"/>
-    <x v="110"/>
-    <x v="108"/>
-    <x v="3"/>
-    <x v="100"/>
-    <x v="103"/>
-    <n v="28.9"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <n v="2013.4166667"/>
-    <x v="111"/>
-    <x v="109"/>
-    <x v="2"/>
-    <x v="101"/>
-    <x v="104"/>
-    <n v="37.5"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <n v="2013.5"/>
-    <x v="36"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="40.1"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <n v="2013.0833333"/>
-    <x v="112"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="28.4"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <n v="2012.9166667"/>
-    <x v="113"/>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="27"/>
-    <x v="26"/>
-    <n v="45.5"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <n v="2012.75"/>
-    <x v="15"/>
-    <x v="97"/>
-    <x v="10"/>
-    <x v="92"/>
-    <x v="92"/>
-    <n v="52.2"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <n v="2012.75"/>
-    <x v="114"/>
-    <x v="110"/>
-    <x v="9"/>
-    <x v="101"/>
-    <x v="41"/>
-    <n v="43.2"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <n v="2013.5"/>
-    <x v="85"/>
-    <x v="111"/>
-    <x v="10"/>
-    <x v="102"/>
-    <x v="105"/>
-    <n v="45.1"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <n v="2012.6666667"/>
-    <x v="115"/>
-    <x v="112"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="3"/>
-    <n v="39.700000000000003"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <n v="2013.25"/>
-    <x v="116"/>
-    <x v="113"/>
-    <x v="4"/>
-    <x v="103"/>
-    <x v="106"/>
-    <n v="48.5"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <n v="2013.5"/>
-    <x v="117"/>
-    <x v="114"/>
-    <x v="1"/>
-    <x v="104"/>
-    <x v="107"/>
-    <n v="44.7"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <n v="2013.3333333"/>
-    <x v="34"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="28.9"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <n v="2013.25"/>
-    <x v="118"/>
-    <x v="115"/>
-    <x v="5"/>
-    <x v="105"/>
-    <x v="108"/>
-    <n v="40.9"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <n v="2013.5"/>
-    <x v="17"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="20.7"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <n v="2013.1666667"/>
-    <x v="65"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="15.6"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <n v="2013.5833333"/>
-    <x v="119"/>
-    <x v="116"/>
-    <x v="10"/>
-    <x v="106"/>
-    <x v="109"/>
-    <n v="18.3"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <n v="2013.25"/>
-    <x v="48"/>
-    <x v="117"/>
-    <x v="7"/>
-    <x v="107"/>
-    <x v="110"/>
-    <n v="35.6"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <n v="2013"/>
-    <x v="120"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="39.4"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <n v="2012.6666667"/>
-    <x v="121"/>
-    <x v="117"/>
-    <x v="7"/>
-    <x v="107"/>
-    <x v="110"/>
-    <n v="37.4"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <n v="2012.9166667"/>
-    <x v="50"/>
-    <x v="118"/>
-    <x v="9"/>
-    <x v="108"/>
-    <x v="111"/>
-    <n v="57.8"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <n v="2013.4166667"/>
-    <x v="27"/>
-    <x v="64"/>
-    <x v="3"/>
-    <x v="59"/>
-    <x v="60"/>
-    <n v="39.6"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <n v="2012.75"/>
-    <x v="122"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="11.6"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <n v="2013.5"/>
-    <x v="59"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="55.5"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <n v="2012.8333333"/>
-    <x v="15"/>
-    <x v="97"/>
-    <x v="10"/>
-    <x v="92"/>
-    <x v="92"/>
-    <n v="55.2"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <n v="2012.9166667"/>
-    <x v="123"/>
-    <x v="119"/>
-    <x v="6"/>
-    <x v="109"/>
-    <x v="112"/>
-    <n v="30.6"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <n v="2013.4166667"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="15"/>
-    <n v="73.599999999999994"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <n v="2013.4166667"/>
-    <x v="124"/>
-    <x v="120"/>
-    <x v="9"/>
-    <x v="110"/>
-    <x v="113"/>
-    <n v="43.4"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <n v="2013.0833333"/>
-    <x v="125"/>
-    <x v="121"/>
-    <x v="2"/>
-    <x v="82"/>
-    <x v="114"/>
-    <n v="37.4"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <n v="2013.4166667"/>
-    <x v="126"/>
-    <x v="122"/>
-    <x v="6"/>
-    <x v="111"/>
-    <x v="115"/>
-    <n v="23.5"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <n v="2013.3333333"/>
-    <x v="127"/>
-    <x v="123"/>
-    <x v="10"/>
-    <x v="112"/>
-    <x v="116"/>
-    <n v="14.4"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <n v="2013.0833333"/>
-    <x v="128"/>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="2"/>
-    <n v="58.8"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <n v="2013.5833333"/>
-    <x v="62"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="58.1"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <n v="2013.0833333"/>
-    <x v="102"/>
-    <x v="124"/>
-    <x v="7"/>
-    <x v="113"/>
-    <x v="117"/>
-    <n v="35.1"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <n v="2013.4166667"/>
-    <x v="129"/>
-    <x v="125"/>
-    <x v="4"/>
-    <x v="114"/>
-    <x v="118"/>
-    <n v="45.2"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <n v="2013.0833333"/>
-    <x v="130"/>
-    <x v="126"/>
-    <x v="3"/>
-    <x v="115"/>
-    <x v="38"/>
-    <n v="36.5"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <n v="2012.8333333"/>
-    <x v="33"/>
-    <x v="127"/>
-    <x v="10"/>
-    <x v="116"/>
-    <x v="119"/>
-    <n v="19.2"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <n v="2013.0833333"/>
-    <x v="131"/>
-    <x v="128"/>
-    <x v="1"/>
-    <x v="117"/>
-    <x v="120"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <n v="2013.5"/>
-    <x v="132"/>
-    <x v="129"/>
-    <x v="7"/>
-    <x v="118"/>
-    <x v="121"/>
-    <n v="36.700000000000003"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <n v="2013.0833333"/>
-    <x v="133"/>
-    <x v="130"/>
-    <x v="6"/>
-    <x v="119"/>
-    <x v="122"/>
-    <n v="42.6"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <n v="2012.6666667"/>
-    <x v="134"/>
-    <x v="131"/>
-    <x v="10"/>
-    <x v="120"/>
-    <x v="123"/>
-    <n v="15.5"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <n v="2013.1666667"/>
-    <x v="120"/>
-    <x v="132"/>
-    <x v="9"/>
-    <x v="121"/>
-    <x v="124"/>
-    <n v="55.9"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <n v="2013.5"/>
-    <x v="135"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="23.6"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <n v="2013.5"/>
-    <x v="136"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="18.8"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <n v="2012.75"/>
-    <x v="137"/>
-    <x v="133"/>
-    <x v="10"/>
-    <x v="122"/>
-    <x v="125"/>
-    <n v="21.8"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <n v="2012.75"/>
-    <x v="90"/>
-    <x v="134"/>
-    <x v="3"/>
-    <x v="123"/>
-    <x v="126"/>
-    <n v="21.5"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <n v="2013.1666667"/>
-    <x v="138"/>
-    <x v="65"/>
-    <x v="3"/>
-    <x v="60"/>
-    <x v="61"/>
-    <n v="25.7"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <n v="2013"/>
-    <x v="76"/>
-    <x v="135"/>
-    <x v="10"/>
-    <x v="124"/>
-    <x v="127"/>
-    <n v="22"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <n v="2012.9166667"/>
-    <x v="9"/>
-    <x v="136"/>
-    <x v="9"/>
-    <x v="80"/>
-    <x v="128"/>
-    <n v="44.3"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <n v="2012.9166667"/>
-    <x v="139"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="20.5"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <n v="2013.5"/>
-    <x v="140"/>
-    <x v="137"/>
-    <x v="9"/>
-    <x v="125"/>
-    <x v="5"/>
-    <n v="42.3"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <n v="2013.1666667"/>
-    <x v="13"/>
-    <x v="138"/>
-    <x v="8"/>
-    <x v="77"/>
-    <x v="100"/>
-    <n v="37.799999999999997"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <n v="2013.1666667"/>
-    <x v="141"/>
-    <x v="139"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="129"/>
-    <n v="42.7"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <n v="2013.4166667"/>
-    <x v="142"/>
-    <x v="140"/>
-    <x v="2"/>
-    <x v="126"/>
-    <x v="130"/>
-    <n v="49.3"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <n v="2013.5"/>
-    <x v="143"/>
-    <x v="141"/>
-    <x v="10"/>
-    <x v="127"/>
-    <x v="131"/>
-    <n v="29.3"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <n v="2013.3333333"/>
-    <x v="143"/>
-    <x v="142"/>
-    <x v="2"/>
-    <x v="128"/>
-    <x v="132"/>
-    <n v="34.6"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <n v="2013"/>
-    <x v="144"/>
-    <x v="143"/>
-    <x v="8"/>
-    <x v="129"/>
-    <x v="133"/>
-    <n v="36.6"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <n v="2013.25"/>
-    <x v="39"/>
-    <x v="144"/>
-    <x v="9"/>
-    <x v="130"/>
-    <x v="56"/>
-    <n v="48.2"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <n v="2013.0833333"/>
-    <x v="145"/>
-    <x v="145"/>
-    <x v="4"/>
-    <x v="131"/>
-    <x v="134"/>
-    <n v="39.1"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <n v="2013.4166667"/>
-    <x v="146"/>
-    <x v="146"/>
-    <x v="9"/>
-    <x v="132"/>
-    <x v="135"/>
-    <n v="31.6"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <n v="2013.4166667"/>
-    <x v="147"/>
-    <x v="57"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="54"/>
-    <n v="25.5"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <n v="2013.4166667"/>
-    <x v="132"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="45.9"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <n v="2012.9166667"/>
-    <x v="148"/>
-    <x v="147"/>
-    <x v="3"/>
-    <x v="133"/>
-    <x v="108"/>
-    <n v="31.5"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <n v="2012.6666667"/>
-    <x v="149"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="46.1"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <n v="2013"/>
-    <x v="70"/>
-    <x v="67"/>
-    <x v="6"/>
-    <x v="62"/>
-    <x v="63"/>
-    <n v="26.6"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <n v="2013.0833333"/>
-    <x v="150"/>
-    <x v="148"/>
-    <x v="3"/>
-    <x v="134"/>
-    <x v="136"/>
-    <n v="21.4"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <n v="2013.25"/>
-    <x v="151"/>
-    <x v="63"/>
-    <x v="0"/>
-    <x v="58"/>
-    <x v="59"/>
-    <n v="44"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <n v="2013.0833333"/>
-    <x v="103"/>
-    <x v="149"/>
-    <x v="3"/>
-    <x v="135"/>
-    <x v="137"/>
-    <n v="34.200000000000003"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <n v="2012.75"/>
-    <x v="152"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="26.2"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <n v="2012.8333333"/>
-    <x v="9"/>
-    <x v="150"/>
-    <x v="9"/>
-    <x v="136"/>
-    <x v="138"/>
-    <n v="40.9"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <n v="2013.5"/>
-    <x v="153"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="52.2"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <n v="2013.0833333"/>
-    <x v="15"/>
-    <x v="76"/>
-    <x v="6"/>
-    <x v="71"/>
-    <x v="72"/>
-    <n v="43.5"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <n v="2013.3333333"/>
-    <x v="154"/>
-    <x v="151"/>
-    <x v="8"/>
-    <x v="137"/>
-    <x v="139"/>
-    <n v="31.1"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <n v="2013.0833333"/>
-    <x v="155"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <n v="2013.5833333"/>
-    <x v="156"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="8"/>
-    <n v="20.9"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <n v="2013.3333333"/>
-    <x v="27"/>
-    <x v="152"/>
-    <x v="9"/>
-    <x v="138"/>
-    <x v="130"/>
-    <n v="48.1"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <n v="2013.25"/>
-    <x v="157"/>
-    <x v="153"/>
-    <x v="6"/>
-    <x v="139"/>
-    <x v="140"/>
-    <n v="39.700000000000003"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <n v="2012.9166667"/>
-    <x v="158"/>
-    <x v="154"/>
-    <x v="5"/>
-    <x v="93"/>
-    <x v="141"/>
-    <n v="40.799999999999997"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <n v="2013.4166667"/>
-    <x v="36"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="43.8"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <n v="2012.75"/>
-    <x v="24"/>
-    <x v="155"/>
-    <x v="9"/>
-    <x v="140"/>
-    <x v="142"/>
-    <n v="40.200000000000003"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <n v="2013.3333333"/>
-    <x v="159"/>
-    <x v="156"/>
-    <x v="1"/>
-    <x v="141"/>
-    <x v="143"/>
-    <n v="78.3"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <n v="2013.3333333"/>
-    <x v="160"/>
-    <x v="77"/>
-    <x v="10"/>
-    <x v="72"/>
-    <x v="73"/>
-    <n v="38.5"/>
-  </r>
-  <r>
-    <n v="223"/>
-    <n v="2013.5833333"/>
-    <x v="96"/>
-    <x v="157"/>
-    <x v="0"/>
-    <x v="142"/>
-    <x v="144"/>
-    <n v="48.5"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <n v="2013.25"/>
-    <x v="78"/>
-    <x v="77"/>
-    <x v="10"/>
-    <x v="72"/>
-    <x v="73"/>
-    <n v="42.3"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <n v="2013.3333333"/>
-    <x v="5"/>
-    <x v="158"/>
-    <x v="5"/>
-    <x v="143"/>
-    <x v="145"/>
-    <n v="46"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <n v="2013.25"/>
-    <x v="87"/>
-    <x v="59"/>
-    <x v="5"/>
-    <x v="54"/>
-    <x v="56"/>
-    <n v="49"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <n v="2013"/>
-    <x v="31"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="12.8"/>
-  </r>
-  <r>
-    <n v="228"/>
-    <n v="2012.9166667"/>
-    <x v="161"/>
-    <x v="159"/>
-    <x v="9"/>
-    <x v="144"/>
-    <x v="146"/>
-    <n v="40.200000000000003"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <n v="2013.4166667"/>
-    <x v="112"/>
-    <x v="160"/>
-    <x v="10"/>
-    <x v="145"/>
-    <x v="147"/>
-    <n v="46.6"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <n v="2013.5833333"/>
-    <x v="162"/>
-    <x v="161"/>
-    <x v="10"/>
-    <x v="146"/>
-    <x v="148"/>
-    <n v="19"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <n v="2013.5"/>
-    <x v="91"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="33.4"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <n v="2012.8333333"/>
-    <x v="35"/>
-    <x v="162"/>
-    <x v="10"/>
-    <x v="147"/>
-    <x v="149"/>
-    <n v="14.7"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <n v="2012.9166667"/>
-    <x v="163"/>
-    <x v="163"/>
-    <x v="6"/>
-    <x v="148"/>
-    <x v="27"/>
-    <n v="17.399999999999999"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <n v="2013.3333333"/>
-    <x v="164"/>
-    <x v="164"/>
-    <x v="1"/>
-    <x v="149"/>
-    <x v="150"/>
-    <n v="32.4"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <n v="2013.25"/>
-    <x v="82"/>
-    <x v="165"/>
-    <x v="7"/>
-    <x v="150"/>
-    <x v="151"/>
-    <n v="23.9"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <n v="2012.75"/>
-    <x v="109"/>
-    <x v="166"/>
-    <x v="4"/>
-    <x v="151"/>
-    <x v="152"/>
-    <n v="39.299999999999997"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <n v="2013.1666667"/>
-    <x v="128"/>
-    <x v="167"/>
-    <x v="0"/>
-    <x v="152"/>
-    <x v="153"/>
-    <n v="61.9"/>
-  </r>
-  <r>
-    <n v="238"/>
-    <n v="2013.1666667"/>
-    <x v="11"/>
-    <x v="168"/>
-    <x v="10"/>
-    <x v="153"/>
-    <x v="154"/>
-    <n v="39"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <n v="2013.0833333"/>
-    <x v="150"/>
-    <x v="168"/>
-    <x v="10"/>
-    <x v="153"/>
-    <x v="154"/>
-    <n v="40.6"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <n v="2013.5"/>
-    <x v="156"/>
-    <x v="169"/>
-    <x v="10"/>
-    <x v="154"/>
-    <x v="155"/>
-    <n v="29.7"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <n v="2013.0833333"/>
-    <x v="52"/>
-    <x v="170"/>
-    <x v="8"/>
-    <x v="155"/>
-    <x v="156"/>
-    <n v="28.8"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <n v="2013.5"/>
-    <x v="123"/>
-    <x v="166"/>
-    <x v="4"/>
-    <x v="151"/>
-    <x v="152"/>
-    <n v="41.4"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <n v="2012.8333333"/>
-    <x v="165"/>
-    <x v="171"/>
-    <x v="3"/>
-    <x v="97"/>
-    <x v="157"/>
-    <n v="33.4"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <n v="2013.4166667"/>
-    <x v="166"/>
-    <x v="172"/>
-    <x v="9"/>
-    <x v="156"/>
-    <x v="158"/>
-    <n v="48.2"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <n v="2013.0833333"/>
-    <x v="167"/>
-    <x v="108"/>
-    <x v="3"/>
-    <x v="100"/>
-    <x v="103"/>
-    <n v="21.7"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <n v="2013.4166667"/>
-    <x v="168"/>
-    <x v="173"/>
-    <x v="2"/>
-    <x v="157"/>
-    <x v="159"/>
-    <n v="40.799999999999997"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <n v="2013.4166667"/>
-    <x v="85"/>
-    <x v="174"/>
-    <x v="5"/>
-    <x v="155"/>
-    <x v="160"/>
-    <n v="40.6"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <n v="2013.3333333"/>
-    <x v="42"/>
-    <x v="175"/>
-    <x v="10"/>
-    <x v="158"/>
-    <x v="161"/>
-    <n v="23.1"/>
-  </r>
-  <r>
-    <n v="249"/>
-    <n v="2013"/>
-    <x v="169"/>
-    <x v="105"/>
-    <x v="10"/>
-    <x v="97"/>
-    <x v="100"/>
-    <n v="22.3"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <n v="2012.8333333"/>
-    <x v="70"/>
-    <x v="176"/>
-    <x v="6"/>
-    <x v="159"/>
-    <x v="162"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <n v="2013.1666667"/>
-    <x v="170"/>
-    <x v="177"/>
-    <x v="4"/>
-    <x v="160"/>
-    <x v="163"/>
-    <n v="30"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <n v="2012.9166667"/>
-    <x v="7"/>
-    <x v="178"/>
-    <x v="10"/>
-    <x v="161"/>
-    <x v="164"/>
-    <n v="13.8"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <n v="2012.8333333"/>
-    <x v="171"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="52.7"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <n v="2012.6666667"/>
-    <x v="60"/>
-    <x v="179"/>
-    <x v="8"/>
-    <x v="162"/>
-    <x v="165"/>
-    <n v="25.9"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <n v="2012.6666667"/>
-    <x v="87"/>
-    <x v="180"/>
-    <x v="2"/>
-    <x v="163"/>
-    <x v="166"/>
-    <n v="51.8"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <n v="2013.4166667"/>
-    <x v="99"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="17.399999999999999"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <n v="2012.6666667"/>
-    <x v="172"/>
-    <x v="181"/>
-    <x v="6"/>
-    <x v="164"/>
-    <x v="167"/>
-    <n v="26.5"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <n v="2013.25"/>
-    <x v="173"/>
-    <x v="182"/>
-    <x v="6"/>
-    <x v="165"/>
-    <x v="122"/>
-    <n v="43.9"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <n v="2013.4166667"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="15"/>
-    <n v="63.3"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <n v="2013.0833333"/>
-    <x v="16"/>
-    <x v="169"/>
-    <x v="10"/>
-    <x v="154"/>
-    <x v="155"/>
-    <n v="28.8"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <n v="2013.25"/>
-    <x v="136"/>
-    <x v="183"/>
-    <x v="7"/>
-    <x v="166"/>
-    <x v="168"/>
-    <n v="30.7"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <n v="2013.1666667"/>
-    <x v="35"/>
-    <x v="184"/>
-    <x v="3"/>
-    <x v="167"/>
-    <x v="169"/>
-    <n v="24.4"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <n v="2012.9166667"/>
-    <x v="174"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="53"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <n v="2013.4166667"/>
-    <x v="175"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="31.7"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <n v="2013.1666667"/>
-    <x v="176"/>
-    <x v="185"/>
-    <x v="4"/>
-    <x v="168"/>
-    <x v="170"/>
-    <n v="40.6"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <n v="2012.8333333"/>
-    <x v="177"/>
-    <x v="117"/>
-    <x v="7"/>
-    <x v="107"/>
-    <x v="110"/>
-    <n v="38.1"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <n v="2013.25"/>
-    <x v="178"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="8"/>
-    <n v="23.7"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <n v="2012.8333333"/>
-    <x v="179"/>
-    <x v="102"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="97"/>
-    <n v="41.1"/>
-  </r>
-  <r>
-    <n v="269"/>
-    <n v="2013.4166667"/>
-    <x v="54"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="40.1"/>
-  </r>
-  <r>
-    <n v="270"/>
-    <n v="2013"/>
-    <x v="154"/>
-    <x v="169"/>
-    <x v="10"/>
-    <x v="154"/>
-    <x v="155"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <n v="2013.3333333"/>
-    <x v="180"/>
-    <x v="186"/>
-    <x v="6"/>
-    <x v="169"/>
-    <x v="171"/>
-    <n v="117.5"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <n v="2012.9166667"/>
-    <x v="16"/>
-    <x v="146"/>
-    <x v="9"/>
-    <x v="132"/>
-    <x v="135"/>
-    <n v="26.5"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <n v="2012.75"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="40.5"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <n v="2013.4166667"/>
-    <x v="13"/>
-    <x v="82"/>
-    <x v="6"/>
-    <x v="77"/>
-    <x v="78"/>
-    <n v="29.3"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <n v="2013.1666667"/>
-    <x v="181"/>
-    <x v="187"/>
-    <x v="4"/>
-    <x v="170"/>
-    <x v="172"/>
-    <n v="41"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <n v="2012.6666667"/>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="18"/>
-    <n v="49.7"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <n v="2013"/>
-    <x v="182"/>
-    <x v="142"/>
-    <x v="2"/>
-    <x v="128"/>
-    <x v="132"/>
-    <n v="34"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <n v="2013.4166667"/>
-    <x v="183"/>
-    <x v="65"/>
-    <x v="3"/>
-    <x v="60"/>
-    <x v="61"/>
-    <n v="27.7"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <n v="2012.75"/>
-    <x v="15"/>
-    <x v="83"/>
-    <x v="5"/>
-    <x v="78"/>
-    <x v="79"/>
-    <n v="44"/>
-  </r>
-  <r>
-    <n v="280"/>
-    <n v="2013.4166667"/>
-    <x v="55"/>
-    <x v="188"/>
-    <x v="3"/>
-    <x v="171"/>
-    <x v="173"/>
-    <n v="31.1"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <n v="2013.25"/>
-    <x v="184"/>
-    <x v="189"/>
-    <x v="5"/>
-    <x v="172"/>
-    <x v="174"/>
-    <n v="45.4"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <n v="2013.3333333"/>
-    <x v="185"/>
-    <x v="114"/>
-    <x v="1"/>
-    <x v="104"/>
-    <x v="107"/>
-    <n v="44.8"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <n v="2012.9166667"/>
-    <x v="165"/>
-    <x v="73"/>
-    <x v="6"/>
-    <x v="68"/>
-    <x v="69"/>
-    <n v="25.6"/>
-  </r>
-  <r>
-    <n v="284"/>
-    <n v="2013.4166667"/>
-    <x v="186"/>
-    <x v="190"/>
-    <x v="8"/>
-    <x v="173"/>
-    <x v="175"/>
-    <n v="23.5"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <n v="2012.9166667"/>
-    <x v="187"/>
-    <x v="71"/>
-    <x v="4"/>
-    <x v="66"/>
-    <x v="67"/>
-    <n v="34.4"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <n v="2013.1666667"/>
-    <x v="188"/>
-    <x v="191"/>
-    <x v="3"/>
-    <x v="174"/>
-    <x v="176"/>
-    <n v="55.3"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <n v="2012.9166667"/>
-    <x v="171"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="56.3"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <n v="2013"/>
-    <x v="27"/>
-    <x v="142"/>
-    <x v="2"/>
-    <x v="128"/>
-    <x v="132"/>
-    <n v="32.9"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <n v="2013.5833333"/>
-    <x v="98"/>
-    <x v="192"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="177"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <n v="2013.3333333"/>
-    <x v="33"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="44.5"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <n v="2013.0833333"/>
-    <x v="189"/>
-    <x v="193"/>
-    <x v="10"/>
-    <x v="175"/>
-    <x v="178"/>
-    <n v="37"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <n v="2012.8333333"/>
-    <x v="190"/>
-    <x v="52"/>
-    <x v="4"/>
-    <x v="48"/>
-    <x v="50"/>
-    <n v="54.4"/>
-  </r>
-  <r>
-    <n v="293"/>
-    <n v="2013.0833333"/>
-    <x v="56"/>
-    <x v="194"/>
-    <x v="2"/>
-    <x v="176"/>
-    <x v="179"/>
-    <n v="24.5"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <n v="2012.6666667"/>
-    <x v="191"/>
-    <x v="71"/>
-    <x v="4"/>
-    <x v="66"/>
-    <x v="67"/>
-    <n v="42.5"/>
-  </r>
-  <r>
-    <n v="295"/>
-    <n v="2013.5"/>
-    <x v="192"/>
-    <x v="195"/>
-    <x v="5"/>
-    <x v="177"/>
-    <x v="180"/>
-    <n v="38.1"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <n v="2013.1666667"/>
-    <x v="146"/>
-    <x v="196"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="181"/>
-    <n v="21.8"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <n v="2012.75"/>
-    <x v="61"/>
-    <x v="129"/>
-    <x v="7"/>
-    <x v="118"/>
-    <x v="121"/>
-    <n v="34.1"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <n v="2012.8333333"/>
-    <x v="115"/>
-    <x v="197"/>
-    <x v="7"/>
-    <x v="178"/>
-    <x v="182"/>
-    <n v="28.5"/>
-  </r>
-  <r>
-    <n v="299"/>
-    <n v="2013.3333333"/>
-    <x v="193"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="16.7"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <n v="2013.1666667"/>
-    <x v="194"/>
-    <x v="198"/>
-    <x v="0"/>
-    <x v="179"/>
-    <x v="49"/>
-    <n v="46.1"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <n v="2013.0833333"/>
-    <x v="195"/>
-    <x v="199"/>
-    <x v="7"/>
-    <x v="180"/>
-    <x v="183"/>
-    <n v="36.9"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <n v="2012.75"/>
-    <x v="196"/>
-    <x v="200"/>
-    <x v="10"/>
-    <x v="181"/>
-    <x v="184"/>
-    <n v="35.700000000000003"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <n v="2013.5"/>
-    <x v="31"/>
-    <x v="184"/>
-    <x v="3"/>
-    <x v="167"/>
-    <x v="169"/>
-    <n v="23.2"/>
-  </r>
-  <r>
-    <n v="304"/>
-    <n v="2013.5"/>
-    <x v="148"/>
-    <x v="201"/>
-    <x v="10"/>
-    <x v="182"/>
-    <x v="185"/>
-    <n v="38.4"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <n v="2013.4166667"/>
-    <x v="197"/>
-    <x v="202"/>
-    <x v="3"/>
-    <x v="90"/>
-    <x v="186"/>
-    <n v="29.4"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <n v="2013.0833333"/>
-    <x v="35"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="55"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <n v="2013.5"/>
-    <x v="198"/>
-    <x v="203"/>
-    <x v="6"/>
-    <x v="183"/>
-    <x v="187"/>
-    <n v="50.2"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <n v="2012.8333333"/>
-    <x v="199"/>
-    <x v="204"/>
-    <x v="10"/>
-    <x v="184"/>
-    <x v="127"/>
-    <n v="24.7"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <n v="2013.4166667"/>
-    <x v="85"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="53"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <n v="2013.25"/>
-    <x v="51"/>
-    <x v="116"/>
-    <x v="10"/>
-    <x v="106"/>
-    <x v="109"/>
-    <n v="19.100000000000001"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <n v="2013.5833333"/>
-    <x v="85"/>
-    <x v="205"/>
-    <x v="8"/>
-    <x v="185"/>
-    <x v="188"/>
-    <n v="24.7"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <n v="2013.1666667"/>
-    <x v="200"/>
-    <x v="206"/>
-    <x v="7"/>
-    <x v="186"/>
-    <x v="189"/>
-    <n v="42.2"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <n v="2013.5833333"/>
-    <x v="201"/>
-    <x v="207"/>
-    <x v="1"/>
-    <x v="187"/>
-    <x v="129"/>
-    <n v="78"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <n v="2013.3333333"/>
-    <x v="202"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="42.8"/>
-  </r>
-  <r>
-    <n v="315"/>
-    <n v="2013.25"/>
-    <x v="203"/>
-    <x v="35"/>
-    <x v="5"/>
-    <x v="34"/>
-    <x v="34"/>
-    <n v="41.6"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <n v="2013.0833333"/>
-    <x v="149"/>
-    <x v="208"/>
-    <x v="8"/>
-    <x v="188"/>
-    <x v="190"/>
-    <n v="27.3"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <n v="2013.25"/>
-    <x v="2"/>
-    <x v="166"/>
-    <x v="4"/>
-    <x v="151"/>
-    <x v="152"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <n v="2012.75"/>
-    <x v="149"/>
-    <x v="209"/>
-    <x v="8"/>
-    <x v="189"/>
-    <x v="29"/>
-    <n v="37.5"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <n v="2013.3333333"/>
-    <x v="4"/>
-    <x v="63"/>
-    <x v="0"/>
-    <x v="58"/>
-    <x v="59"/>
-    <n v="49.8"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <n v="2013.25"/>
-    <x v="204"/>
-    <x v="210"/>
-    <x v="2"/>
-    <x v="190"/>
-    <x v="191"/>
-    <n v="26.9"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <n v="2012.75"/>
-    <x v="135"/>
-    <x v="94"/>
-    <x v="10"/>
-    <x v="89"/>
-    <x v="90"/>
-    <n v="18.600000000000001"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <n v="2012.9166667"/>
-    <x v="17"/>
-    <x v="81"/>
-    <x v="7"/>
-    <x v="76"/>
-    <x v="77"/>
-    <n v="37.700000000000003"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <n v="2013"/>
-    <x v="109"/>
-    <x v="211"/>
-    <x v="6"/>
-    <x v="191"/>
-    <x v="192"/>
-    <n v="33.1"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <n v="2013.4166667"/>
-    <x v="205"/>
-    <x v="212"/>
-    <x v="5"/>
-    <x v="192"/>
-    <x v="193"/>
-    <n v="42.5"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <n v="2012.6666667"/>
-    <x v="206"/>
-    <x v="170"/>
-    <x v="8"/>
-    <x v="155"/>
-    <x v="156"/>
-    <n v="31.3"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <n v="2013.0833333"/>
-    <x v="41"/>
-    <x v="42"/>
-    <x v="9"/>
-    <x v="40"/>
-    <x v="41"/>
-    <n v="38.1"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <n v="2013.5"/>
-    <x v="207"/>
-    <x v="52"/>
-    <x v="4"/>
-    <x v="48"/>
-    <x v="50"/>
-    <n v="62.1"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <n v="2013.4166667"/>
-    <x v="50"/>
-    <x v="213"/>
-    <x v="3"/>
-    <x v="193"/>
-    <x v="194"/>
-    <n v="36.700000000000003"/>
-  </r>
-  <r>
-    <n v="329"/>
-    <n v="2012.8333333"/>
-    <x v="174"/>
-    <x v="214"/>
-    <x v="3"/>
-    <x v="178"/>
-    <x v="195"/>
-    <n v="23.6"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <n v="2013"/>
-    <x v="36"/>
-    <x v="94"/>
-    <x v="10"/>
-    <x v="89"/>
-    <x v="90"/>
-    <n v="19.2"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <n v="2013.0833333"/>
-    <x v="0"/>
-    <x v="215"/>
-    <x v="10"/>
-    <x v="194"/>
-    <x v="171"/>
-    <n v="12.8"/>
-  </r>
-  <r>
-    <n v="332"/>
-    <n v="2013.3333333"/>
-    <x v="208"/>
-    <x v="28"/>
-    <x v="10"/>
-    <x v="28"/>
-    <x v="27"/>
-    <n v="15.6"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <n v="2013.1666667"/>
-    <x v="209"/>
-    <x v="216"/>
-    <x v="8"/>
-    <x v="195"/>
-    <x v="196"/>
-    <n v="39.6"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <n v="2012.75"/>
-    <x v="210"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="38.4"/>
-  </r>
-  <r>
-    <n v="335"/>
-    <n v="2012.9166667"/>
-    <x v="211"/>
-    <x v="217"/>
-    <x v="2"/>
-    <x v="196"/>
-    <x v="197"/>
-    <n v="22.8"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <n v="2013.5833333"/>
-    <x v="212"/>
-    <x v="218"/>
-    <x v="5"/>
-    <x v="197"/>
-    <x v="198"/>
-    <n v="36.5"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <n v="2012.8333333"/>
-    <x v="110"/>
-    <x v="219"/>
-    <x v="8"/>
-    <x v="198"/>
-    <x v="199"/>
-    <n v="35.6"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <n v="2012.8333333"/>
-    <x v="46"/>
-    <x v="220"/>
-    <x v="2"/>
-    <x v="199"/>
-    <x v="200"/>
-    <n v="30.9"/>
-  </r>
-  <r>
-    <n v="339"/>
-    <n v="2012.9166667"/>
-    <x v="99"/>
-    <x v="221"/>
-    <x v="1"/>
-    <x v="200"/>
-    <x v="201"/>
-    <n v="36.299999999999997"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <n v="2013.3333333"/>
-    <x v="213"/>
-    <x v="180"/>
-    <x v="2"/>
-    <x v="163"/>
-    <x v="166"/>
-    <n v="50.4"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <n v="2013.3333333"/>
-    <x v="49"/>
-    <x v="222"/>
-    <x v="10"/>
-    <x v="201"/>
-    <x v="202"/>
-    <n v="42.9"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <n v="2013"/>
-    <x v="11"/>
-    <x v="138"/>
-    <x v="8"/>
-    <x v="77"/>
-    <x v="100"/>
-    <n v="37"/>
-  </r>
-  <r>
-    <n v="343"/>
-    <n v="2012.6666667"/>
-    <x v="214"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="53.5"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <n v="2013"/>
-    <x v="186"/>
-    <x v="223"/>
-    <x v="9"/>
-    <x v="202"/>
-    <x v="203"/>
-    <n v="46.6"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <n v="2013.5"/>
-    <x v="204"/>
-    <x v="224"/>
-    <x v="10"/>
-    <x v="203"/>
-    <x v="204"/>
-    <n v="41.2"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <n v="2012.6666667"/>
-    <x v="15"/>
-    <x v="97"/>
-    <x v="10"/>
-    <x v="92"/>
-    <x v="92"/>
-    <n v="37.9"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <n v="2013.4166667"/>
-    <x v="13"/>
-    <x v="170"/>
-    <x v="8"/>
-    <x v="155"/>
-    <x v="156"/>
-    <n v="30.8"/>
-  </r>
-  <r>
-    <n v="348"/>
-    <n v="2013.5833333"/>
-    <x v="147"/>
-    <x v="225"/>
-    <x v="6"/>
-    <x v="204"/>
-    <x v="205"/>
-    <n v="11.2"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <n v="2012.8333333"/>
-    <x v="215"/>
-    <x v="55"/>
-    <x v="5"/>
-    <x v="51"/>
-    <x v="53"/>
-    <n v="53.7"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <n v="2012.75"/>
-    <x v="210"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="47"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <n v="2013"/>
-    <x v="13"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="42.3"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <n v="2012.8333333"/>
-    <x v="91"/>
-    <x v="226"/>
-    <x v="3"/>
-    <x v="205"/>
-    <x v="206"/>
-    <n v="28.6"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <n v="2012.8333333"/>
-    <x v="216"/>
-    <x v="227"/>
-    <x v="3"/>
-    <x v="206"/>
-    <x v="207"/>
-    <n v="25.7"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <n v="2013.5"/>
-    <x v="207"/>
-    <x v="87"/>
-    <x v="3"/>
-    <x v="82"/>
-    <x v="83"/>
-    <n v="31.3"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <n v="2013.4166667"/>
-    <x v="89"/>
-    <x v="21"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="21"/>
-    <n v="30.1"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <n v="2013.25"/>
-    <x v="101"/>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="24"/>
-    <x v="2"/>
-    <n v="60.7"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <n v="2012.8333333"/>
-    <x v="199"/>
-    <x v="228"/>
-    <x v="6"/>
-    <x v="207"/>
-    <x v="208"/>
-    <n v="45.3"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <n v="2013.4166667"/>
-    <x v="15"/>
-    <x v="72"/>
-    <x v="1"/>
-    <x v="67"/>
-    <x v="68"/>
-    <n v="44.9"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <n v="2013.1666667"/>
-    <x v="87"/>
-    <x v="59"/>
-    <x v="5"/>
-    <x v="54"/>
-    <x v="56"/>
-    <n v="45.1"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <n v="2013.5"/>
-    <x v="217"/>
-    <x v="229"/>
-    <x v="10"/>
-    <x v="208"/>
-    <x v="209"/>
-    <n v="24.7"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <n v="2012.6666667"/>
-    <x v="218"/>
-    <x v="230"/>
-    <x v="0"/>
-    <x v="209"/>
-    <x v="210"/>
-    <n v="47.1"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <n v="2013.0833333"/>
-    <x v="219"/>
-    <x v="231"/>
-    <x v="9"/>
-    <x v="210"/>
-    <x v="211"/>
-    <n v="63.3"/>
-  </r>
-  <r>
-    <n v="363"/>
-    <n v="2013.4166667"/>
-    <x v="220"/>
-    <x v="232"/>
-    <x v="7"/>
-    <x v="76"/>
-    <x v="28"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <n v="364"/>
-    <n v="2013.5"/>
-    <x v="221"/>
-    <x v="233"/>
-    <x v="0"/>
-    <x v="211"/>
-    <x v="174"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <n v="365"/>
-    <n v="2013.4166667"/>
-    <x v="140"/>
-    <x v="234"/>
-    <x v="4"/>
-    <x v="212"/>
-    <x v="212"/>
-    <n v="33.1"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <n v="2012.9166667"/>
-    <x v="173"/>
-    <x v="235"/>
-    <x v="7"/>
-    <x v="213"/>
-    <x v="213"/>
-    <n v="29.5"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <n v="2012.75"/>
-    <x v="222"/>
-    <x v="236"/>
-    <x v="6"/>
-    <x v="214"/>
-    <x v="214"/>
-    <n v="24.8"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <n v="2012.8333333"/>
-    <x v="187"/>
-    <x v="237"/>
-    <x v="8"/>
-    <x v="162"/>
-    <x v="215"/>
-    <n v="20.9"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <n v="2013.4166667"/>
-    <x v="146"/>
-    <x v="16"/>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="16"/>
-    <n v="43.1"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <n v="2012.6666667"/>
-    <x v="223"/>
-    <x v="65"/>
-    <x v="3"/>
-    <x v="60"/>
-    <x v="61"/>
-    <n v="22.8"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <n v="2012.75"/>
-    <x v="174"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="42.1"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <n v="2013.5"/>
-    <x v="207"/>
-    <x v="238"/>
-    <x v="2"/>
-    <x v="215"/>
-    <x v="216"/>
-    <n v="51.7"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <n v="2013"/>
-    <x v="224"/>
-    <x v="145"/>
-    <x v="4"/>
-    <x v="131"/>
-    <x v="134"/>
-    <n v="41.5"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <n v="2013.0833333"/>
-    <x v="15"/>
-    <x v="76"/>
-    <x v="6"/>
-    <x v="71"/>
-    <x v="72"/>
-    <n v="52.2"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <n v="2013.25"/>
-    <x v="225"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="49.5"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <n v="2013.25"/>
-    <x v="42"/>
-    <x v="239"/>
-    <x v="10"/>
-    <x v="216"/>
-    <x v="217"/>
-    <n v="23.8"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <n v="2013.4166667"/>
-    <x v="21"/>
-    <x v="240"/>
-    <x v="8"/>
-    <x v="217"/>
-    <x v="218"/>
-    <n v="30.5"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <n v="2013.3333333"/>
-    <x v="175"/>
-    <x v="118"/>
-    <x v="9"/>
-    <x v="108"/>
-    <x v="111"/>
-    <n v="56.8"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <n v="2013.3333333"/>
-    <x v="226"/>
-    <x v="241"/>
-    <x v="9"/>
-    <x v="218"/>
-    <x v="219"/>
-    <n v="37.4"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <n v="2013.3333333"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="15"/>
-    <x v="15"/>
-    <n v="69.7"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <n v="2013.3333333"/>
-    <x v="137"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="53.3"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <n v="2013.4166667"/>
-    <x v="82"/>
-    <x v="242"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="220"/>
-    <n v="47.3"/>
-  </r>
-  <r>
-    <n v="383"/>
-    <n v="2013"/>
-    <x v="139"/>
-    <x v="243"/>
-    <x v="10"/>
-    <x v="219"/>
-    <x v="221"/>
-    <n v="29.3"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <n v="2012.6666667"/>
-    <x v="227"/>
-    <x v="244"/>
-    <x v="7"/>
-    <x v="220"/>
-    <x v="222"/>
-    <n v="40.299999999999997"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <n v="2012.75"/>
-    <x v="48"/>
-    <x v="38"/>
-    <x v="10"/>
-    <x v="37"/>
-    <x v="37"/>
-    <n v="12.9"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <n v="2013"/>
-    <x v="228"/>
-    <x v="245"/>
-    <x v="0"/>
-    <x v="209"/>
-    <x v="75"/>
-    <n v="46.6"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <n v="2012.8333333"/>
-    <x v="15"/>
-    <x v="97"/>
-    <x v="10"/>
-    <x v="92"/>
-    <x v="92"/>
-    <n v="55.3"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <n v="2013.25"/>
-    <x v="35"/>
-    <x v="246"/>
-    <x v="3"/>
-    <x v="221"/>
-    <x v="85"/>
-    <n v="25.6"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <n v="2013.5"/>
-    <x v="26"/>
-    <x v="247"/>
-    <x v="7"/>
-    <x v="222"/>
-    <x v="223"/>
-    <n v="27.3"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <n v="2013.25"/>
-    <x v="81"/>
-    <x v="248"/>
-    <x v="9"/>
-    <x v="223"/>
-    <x v="224"/>
-    <n v="67.7"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <n v="2013.5"/>
-    <x v="166"/>
-    <x v="249"/>
-    <x v="1"/>
-    <x v="224"/>
-    <x v="225"/>
-    <n v="38.6"/>
-  </r>
-  <r>
-    <n v="392"/>
-    <n v="2013.5833333"/>
-    <x v="155"/>
-    <x v="250"/>
-    <x v="6"/>
-    <x v="225"/>
-    <x v="226"/>
-    <n v="31.3"/>
-  </r>
-  <r>
-    <n v="393"/>
-    <n v="2013.0833333"/>
-    <x v="229"/>
-    <x v="251"/>
-    <x v="5"/>
-    <x v="226"/>
-    <x v="227"/>
-    <n v="35.299999999999997"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <n v="2013"/>
-    <x v="17"/>
-    <x v="232"/>
-    <x v="7"/>
-    <x v="76"/>
-    <x v="28"/>
-    <n v="40.299999999999997"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <n v="2013.5"/>
-    <x v="176"/>
-    <x v="252"/>
-    <x v="6"/>
-    <x v="227"/>
-    <x v="228"/>
-    <n v="24.7"/>
-  </r>
-  <r>
-    <n v="396"/>
-    <n v="2012.9166667"/>
-    <x v="183"/>
-    <x v="47"/>
-    <x v="7"/>
-    <x v="44"/>
-    <x v="45"/>
-    <n v="42.5"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <n v="2012.6666667"/>
-    <x v="230"/>
-    <x v="253"/>
-    <x v="6"/>
-    <x v="228"/>
-    <x v="229"/>
-    <n v="31.9"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <n v="2013.4166667"/>
-    <x v="132"/>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="13"/>
-    <x v="13"/>
-    <n v="32.200000000000003"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <n v="2013.4166667"/>
-    <x v="21"/>
-    <x v="240"/>
-    <x v="8"/>
-    <x v="217"/>
-    <x v="218"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <n v="2012.9166667"/>
-    <x v="86"/>
-    <x v="82"/>
-    <x v="6"/>
-    <x v="77"/>
-    <x v="78"/>
-    <n v="37.299999999999997"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <n v="2013.25"/>
-    <x v="231"/>
-    <x v="102"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="97"/>
-    <n v="35.5"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <n v="2013.0833333"/>
-    <x v="232"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="27.7"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <n v="2012.8333333"/>
-    <x v="86"/>
-    <x v="211"/>
-    <x v="6"/>
-    <x v="191"/>
-    <x v="192"/>
-    <n v="28.5"/>
-  </r>
-  <r>
-    <n v="404"/>
-    <n v="2012.6666667"/>
-    <x v="97"/>
-    <x v="254"/>
-    <x v="1"/>
-    <x v="229"/>
-    <x v="230"/>
-    <n v="39.700000000000003"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <n v="2013.3333333"/>
-    <x v="85"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="35"/>
-    <x v="35"/>
-    <n v="41.2"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <n v="2012.6666667"/>
-    <x v="77"/>
-    <x v="255"/>
-    <x v="5"/>
-    <x v="230"/>
-    <x v="153"/>
-    <n v="37.200000000000003"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <n v="2013.1666667"/>
-    <x v="233"/>
-    <x v="256"/>
-    <x v="4"/>
-    <x v="231"/>
-    <x v="75"/>
-    <n v="40.5"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <n v="2013"/>
-    <x v="153"/>
-    <x v="229"/>
-    <x v="10"/>
-    <x v="208"/>
-    <x v="209"/>
-    <n v="22.3"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <n v="2013.4166667"/>
-    <x v="234"/>
-    <x v="257"/>
-    <x v="3"/>
-    <x v="232"/>
-    <x v="231"/>
-    <n v="28.1"/>
-  </r>
-  <r>
-    <n v="410"/>
-    <n v="2013"/>
-    <x v="123"/>
-    <x v="37"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="36"/>
-    <n v="15.4"/>
-  </r>
-  <r>
-    <n v="411"/>
-    <n v="2012.6666667"/>
-    <x v="217"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <n v="2013.25"/>
-    <x v="235"/>
-    <x v="258"/>
-    <x v="4"/>
-    <x v="233"/>
-    <x v="146"/>
-    <n v="40.6"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <n v="2013"/>
-    <x v="92"/>
-    <x v="60"/>
-    <x v="2"/>
-    <x v="55"/>
-    <x v="57"/>
-    <n v="52.5"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <n v="2013.5"/>
-    <x v="118"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="63.9"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96291A4E-4830-964A-AF5F-635CEBC40332}" name="Tabella pivot1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A3:A263" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="237">
-        <item x="15"/>
-        <item x="58"/>
-        <item x="87"/>
-        <item x="18"/>
-        <item x="213"/>
-        <item x="75"/>
-        <item x="233"/>
-        <item x="165"/>
-        <item x="113"/>
-        <item x="184"/>
-        <item x="195"/>
-        <item x="55"/>
-        <item x="40"/>
-        <item x="25"/>
-        <item x="114"/>
-        <item x="190"/>
-        <item x="50"/>
-        <item x="128"/>
-        <item x="203"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="91"/>
-        <item x="207"/>
-        <item x="129"/>
-        <item x="19"/>
-        <item x="215"/>
-        <item x="185"/>
-        <item x="167"/>
-        <item x="117"/>
-        <item x="3"/>
-        <item x="110"/>
-        <item x="153"/>
-        <item x="53"/>
-        <item x="225"/>
-        <item x="217"/>
-        <item x="214"/>
-        <item x="171"/>
-        <item x="155"/>
-        <item x="10"/>
-        <item x="83"/>
-        <item x="118"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="168"/>
-        <item x="232"/>
-        <item x="210"/>
-        <item x="82"/>
-        <item x="92"/>
-        <item x="202"/>
-        <item x="126"/>
-        <item x="59"/>
-        <item x="76"/>
-        <item x="160"/>
-        <item x="78"/>
-        <item x="142"/>
-        <item x="94"/>
-        <item x="108"/>
-        <item x="22"/>
-        <item x="199"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="180"/>
-        <item x="52"/>
-        <item x="107"/>
-        <item x="152"/>
-        <item x="120"/>
-        <item x="71"/>
-        <item x="112"/>
-        <item x="34"/>
-        <item x="89"/>
-        <item x="67"/>
-        <item x="206"/>
-        <item x="61"/>
-        <item x="191"/>
-        <item x="86"/>
-        <item x="150"/>
-        <item x="109"/>
-        <item x="11"/>
-        <item x="132"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="135"/>
-        <item x="36"/>
-        <item x="123"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="133"/>
-        <item x="137"/>
-        <item x="222"/>
-        <item x="198"/>
-        <item x="172"/>
-        <item x="21"/>
-        <item x="95"/>
-        <item x="187"/>
-        <item x="74"/>
-        <item x="143"/>
-        <item x="32"/>
-        <item x="121"/>
-        <item x="149"/>
-        <item x="177"/>
-        <item x="174"/>
-        <item x="122"/>
-        <item x="48"/>
-        <item x="35"/>
-        <item x="139"/>
-        <item x="85"/>
-        <item x="31"/>
-        <item x="98"/>
-        <item x="193"/>
-        <item x="37"/>
-        <item x="17"/>
-        <item x="136"/>
-        <item x="220"/>
-        <item x="54"/>
-        <item x="173"/>
-        <item x="147"/>
-        <item x="56"/>
-        <item x="154"/>
-        <item x="16"/>
-        <item x="178"/>
-        <item x="8"/>
-        <item x="70"/>
-        <item x="156"/>
-        <item x="146"/>
-        <item x="228"/>
-        <item x="216"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="106"/>
-        <item x="169"/>
-        <item x="182"/>
-        <item x="27"/>
-        <item x="1"/>
-        <item x="111"/>
-        <item x="197"/>
-        <item x="223"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="68"/>
-        <item x="79"/>
-        <item x="138"/>
-        <item x="183"/>
-        <item x="200"/>
-        <item x="42"/>
-        <item x="151"/>
-        <item x="144"/>
-        <item x="77"/>
-        <item x="127"/>
-        <item x="44"/>
-        <item x="73"/>
-        <item x="208"/>
-        <item x="28"/>
-        <item x="192"/>
-        <item x="104"/>
-        <item x="231"/>
-        <item x="134"/>
-        <item x="163"/>
-        <item x="212"/>
-        <item x="181"/>
-        <item x="125"/>
-        <item x="158"/>
-        <item x="124"/>
-        <item x="84"/>
-        <item x="205"/>
-        <item x="227"/>
-        <item x="24"/>
-        <item x="45"/>
-        <item x="29"/>
-        <item x="211"/>
-        <item x="188"/>
-        <item x="130"/>
-        <item x="51"/>
-        <item x="60"/>
-        <item x="96"/>
-        <item x="119"/>
-        <item x="72"/>
-        <item x="97"/>
-        <item x="162"/>
-        <item x="46"/>
-        <item x="90"/>
-        <item x="99"/>
-        <item x="7"/>
-        <item x="80"/>
-        <item x="0"/>
-        <item x="47"/>
-        <item x="221"/>
-        <item x="161"/>
-        <item x="64"/>
-        <item x="176"/>
-        <item x="88"/>
-        <item x="166"/>
-        <item x="218"/>
-        <item x="131"/>
-        <item x="194"/>
-        <item x="93"/>
-        <item x="105"/>
-        <item x="186"/>
-        <item x="49"/>
-        <item x="224"/>
-        <item x="145"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="204"/>
-        <item x="179"/>
-        <item x="9"/>
-        <item x="115"/>
-        <item x="140"/>
-        <item x="201"/>
-        <item x="63"/>
-        <item x="14"/>
-        <item x="116"/>
-        <item x="43"/>
-        <item x="38"/>
-        <item x="41"/>
-        <item x="230"/>
-        <item x="159"/>
-        <item x="226"/>
-        <item x="189"/>
-        <item x="157"/>
-        <item x="30"/>
-        <item x="196"/>
-        <item x="69"/>
-        <item x="148"/>
-        <item x="103"/>
-        <item x="100"/>
-        <item x="170"/>
-        <item x="23"/>
-        <item x="164"/>
-        <item x="209"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="102"/>
-        <item x="219"/>
-        <item x="229"/>
-        <item x="141"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="260">
-        <item x="225"/>
-        <item x="93"/>
-        <item x="176"/>
-        <item x="7"/>
-        <item x="45"/>
-        <item x="127"/>
-        <item x="123"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="131"/>
-        <item x="163"/>
-        <item x="94"/>
-        <item x="252"/>
-        <item x="37"/>
-        <item x="33"/>
-        <item x="162"/>
-        <item x="38"/>
-        <item x="75"/>
-        <item x="111"/>
-        <item x="141"/>
-        <item x="243"/>
-        <item x="160"/>
-        <item x="224"/>
-        <item x="204"/>
-        <item x="135"/>
-        <item x="70"/>
-        <item x="227"/>
-        <item x="133"/>
-        <item x="12"/>
-        <item x="229"/>
-        <item x="184"/>
-        <item x="19"/>
-        <item x="235"/>
-        <item x="247"/>
-        <item x="165"/>
-        <item x="65"/>
-        <item x="226"/>
-        <item x="196"/>
-        <item x="56"/>
-        <item x="257"/>
-        <item x="4"/>
-        <item x="87"/>
-        <item x="246"/>
-        <item x="89"/>
-        <item x="171"/>
-        <item x="190"/>
-        <item x="122"/>
-        <item x="250"/>
-        <item x="34"/>
-        <item x="54"/>
-        <item x="219"/>
-        <item x="237"/>
-        <item x="151"/>
-        <item x="236"/>
-        <item x="8"/>
-        <item x="48"/>
-        <item x="208"/>
-        <item x="179"/>
-        <item x="240"/>
-        <item x="170"/>
-        <item x="205"/>
-        <item x="202"/>
-        <item x="95"/>
-        <item x="108"/>
-        <item x="188"/>
-        <item x="214"/>
-        <item x="23"/>
-        <item x="183"/>
-        <item x="73"/>
-        <item x="148"/>
-        <item x="134"/>
-        <item x="49"/>
-        <item x="67"/>
-        <item x="74"/>
-        <item x="77"/>
-        <item x="21"/>
-        <item x="116"/>
-        <item x="119"/>
-        <item x="13"/>
-        <item x="50"/>
-        <item x="178"/>
-        <item x="239"/>
-        <item x="215"/>
-        <item x="161"/>
-        <item x="78"/>
-        <item x="129"/>
-        <item x="175"/>
-        <item x="217"/>
-        <item x="105"/>
-        <item x="57"/>
-        <item x="232"/>
-        <item x="81"/>
-        <item x="107"/>
-        <item x="253"/>
-        <item x="169"/>
-        <item x="117"/>
-        <item x="98"/>
-        <item x="29"/>
-        <item x="213"/>
-        <item x="209"/>
-        <item x="138"/>
-        <item x="92"/>
-        <item x="168"/>
-        <item x="191"/>
-        <item x="143"/>
-        <item x="149"/>
-        <item x="147"/>
-        <item x="44"/>
-        <item x="109"/>
-        <item x="173"/>
-        <item x="5"/>
-        <item x="216"/>
-        <item x="80"/>
-        <item x="137"/>
-        <item x="64"/>
-        <item x="234"/>
-        <item x="220"/>
-        <item x="86"/>
-        <item x="153"/>
-        <item x="241"/>
-        <item x="14"/>
-        <item x="35"/>
-        <item x="197"/>
-        <item x="223"/>
-        <item x="2"/>
-        <item x="26"/>
-        <item x="66"/>
-        <item x="206"/>
-        <item x="101"/>
-        <item x="41"/>
-        <item x="155"/>
-        <item x="39"/>
-        <item x="121"/>
-        <item x="40"/>
-        <item x="47"/>
-        <item x="244"/>
-        <item x="185"/>
-        <item x="11"/>
-        <item x="193"/>
-        <item x="110"/>
-        <item x="42"/>
-        <item x="30"/>
-        <item x="102"/>
-        <item x="22"/>
-        <item x="126"/>
-        <item x="61"/>
-        <item x="43"/>
-        <item x="200"/>
-        <item x="142"/>
-        <item x="146"/>
-        <item x="27"/>
-        <item x="182"/>
-        <item x="251"/>
-        <item x="201"/>
-        <item x="130"/>
-        <item x="125"/>
-        <item x="157"/>
-        <item x="177"/>
-        <item x="62"/>
-        <item x="140"/>
-        <item x="96"/>
-        <item x="9"/>
-        <item x="124"/>
-        <item x="194"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="84"/>
-        <item x="258"/>
-        <item x="3"/>
-        <item x="174"/>
-        <item x="114"/>
-        <item x="24"/>
-        <item x="152"/>
-        <item x="71"/>
-        <item x="63"/>
-        <item x="249"/>
-        <item x="68"/>
-        <item x="115"/>
-        <item x="167"/>
-        <item x="103"/>
-        <item x="154"/>
-        <item x="256"/>
-        <item x="51"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="181"/>
-        <item x="72"/>
-        <item x="218"/>
-        <item x="53"/>
-        <item x="195"/>
-        <item x="164"/>
-        <item x="120"/>
-        <item x="180"/>
-        <item x="158"/>
-        <item x="192"/>
-        <item x="31"/>
-        <item x="106"/>
-        <item x="207"/>
-        <item x="238"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="231"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="76"/>
-        <item x="210"/>
-        <item x="222"/>
-        <item x="159"/>
-        <item x="55"/>
-        <item x="221"/>
-        <item x="186"/>
-        <item x="166"/>
-        <item x="100"/>
-        <item x="228"/>
-        <item x="83"/>
-        <item x="32"/>
-        <item x="172"/>
-        <item x="132"/>
-        <item x="212"/>
-        <item x="88"/>
-        <item x="59"/>
-        <item x="136"/>
-        <item x="85"/>
-        <item x="211"/>
-        <item x="104"/>
-        <item x="156"/>
-        <item x="97"/>
-        <item x="189"/>
-        <item x="128"/>
-        <item x="112"/>
-        <item x="150"/>
-        <item x="113"/>
-        <item x="82"/>
-        <item x="203"/>
-        <item x="79"/>
-        <item x="254"/>
-        <item x="145"/>
-        <item x="199"/>
-        <item x="69"/>
-        <item x="91"/>
-        <item x="242"/>
-        <item x="255"/>
-        <item x="144"/>
-        <item x="99"/>
-        <item x="58"/>
-        <item x="248"/>
-        <item x="198"/>
-        <item x="233"/>
-        <item x="60"/>
-        <item x="10"/>
-        <item x="230"/>
-        <item x="0"/>
-        <item x="245"/>
-        <item x="139"/>
-        <item x="52"/>
-        <item x="118"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="235">
-        <item x="219"/>
-        <item x="102"/>
-        <item x="127"/>
-        <item x="89"/>
-        <item x="36"/>
-        <item x="147"/>
-        <item x="37"/>
-        <item x="88"/>
-        <item x="42"/>
-        <item x="112"/>
-        <item x="70"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="106"/>
-        <item x="146"/>
-        <item x="120"/>
-        <item x="73"/>
-        <item x="43"/>
-        <item x="194"/>
-        <item x="161"/>
-        <item x="46"/>
-        <item x="148"/>
-        <item x="7"/>
-        <item x="68"/>
-        <item x="214"/>
-        <item x="225"/>
-        <item x="62"/>
-        <item x="21"/>
-        <item x="185"/>
-        <item x="45"/>
-        <item x="105"/>
-        <item x="128"/>
-        <item x="184"/>
-        <item x="124"/>
-        <item x="111"/>
-        <item x="122"/>
-        <item x="208"/>
-        <item x="227"/>
-        <item x="190"/>
-        <item x="215"/>
-        <item x="25"/>
-        <item x="78"/>
-        <item x="230"/>
-        <item x="176"/>
-        <item x="204"/>
-        <item x="159"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="108"/>
-        <item x="167"/>
-        <item x="222"/>
-        <item x="150"/>
-        <item x="221"/>
-        <item x="84"/>
-        <item x="65"/>
-        <item x="12"/>
-        <item x="206"/>
-        <item x="216"/>
-        <item x="85"/>
-        <item x="213"/>
-        <item x="158"/>
-        <item x="82"/>
-        <item x="52"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="60"/>
-        <item x="205"/>
-        <item x="232"/>
-        <item x="154"/>
-        <item x="97"/>
-        <item x="50"/>
-        <item x="33"/>
-        <item x="79"/>
-        <item x="155"/>
-        <item x="63"/>
-        <item x="197"/>
-        <item x="217"/>
-        <item x="162"/>
-        <item x="98"/>
-        <item x="11"/>
-        <item x="54"/>
-        <item x="172"/>
-        <item x="96"/>
-        <item x="151"/>
-        <item x="90"/>
-        <item x="131"/>
-        <item x="74"/>
-        <item x="55"/>
-        <item x="180"/>
-        <item x="103"/>
-        <item x="64"/>
-        <item x="8"/>
-        <item x="66"/>
-        <item x="17"/>
-        <item x="223"/>
-        <item x="18"/>
-        <item x="67"/>
-        <item x="200"/>
-        <item x="199"/>
-        <item x="130"/>
-        <item x="132"/>
-        <item x="168"/>
-        <item x="178"/>
-        <item x="115"/>
-        <item x="40"/>
-        <item x="101"/>
-        <item x="171"/>
-        <item x="41"/>
-        <item x="187"/>
-        <item x="166"/>
-        <item x="218"/>
-        <item x="92"/>
-        <item x="224"/>
-        <item x="139"/>
-        <item x="182"/>
-        <item x="228"/>
-        <item x="138"/>
-        <item x="34"/>
-        <item x="100"/>
-        <item x="175"/>
-        <item x="181"/>
-        <item x="47"/>
-        <item x="157"/>
-        <item x="81"/>
-        <item x="201"/>
-        <item x="123"/>
-        <item x="134"/>
-        <item x="231"/>
-        <item x="170"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="183"/>
-        <item x="77"/>
-        <item x="191"/>
-        <item x="44"/>
-        <item x="110"/>
-        <item x="207"/>
-        <item x="26"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="10"/>
-        <item x="39"/>
-        <item x="169"/>
-        <item x="71"/>
-        <item x="119"/>
-        <item x="165"/>
-        <item x="135"/>
-        <item x="174"/>
-        <item x="164"/>
-        <item x="20"/>
-        <item x="193"/>
-        <item x="23"/>
-        <item x="16"/>
-        <item x="133"/>
-        <item x="27"/>
-        <item x="195"/>
-        <item x="51"/>
-        <item x="57"/>
-        <item x="61"/>
-        <item x="192"/>
-        <item x="53"/>
-        <item x="153"/>
-        <item x="109"/>
-        <item x="117"/>
-        <item x="83"/>
-        <item x="141"/>
-        <item x="80"/>
-        <item x="59"/>
-        <item x="15"/>
-        <item x="75"/>
-        <item x="189"/>
-        <item x="143"/>
-        <item x="93"/>
-        <item x="30"/>
-        <item x="99"/>
-        <item x="220"/>
-        <item x="107"/>
-        <item x="212"/>
-        <item x="233"/>
-        <item x="226"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="125"/>
-        <item x="177"/>
-        <item x="56"/>
-        <item x="149"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="114"/>
-        <item x="144"/>
-        <item x="24"/>
-        <item x="94"/>
-        <item x="87"/>
-        <item x="129"/>
-        <item x="140"/>
-        <item x="104"/>
-        <item x="142"/>
-        <item x="86"/>
-        <item x="179"/>
-        <item x="211"/>
-        <item x="91"/>
-        <item x="35"/>
-        <item x="202"/>
-        <item x="156"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="163"/>
-        <item x="29"/>
-        <item x="0"/>
-        <item x="209"/>
-        <item x="188"/>
-        <item x="152"/>
-        <item x="113"/>
-        <item x="58"/>
-        <item x="229"/>
-        <item x="198"/>
-        <item x="31"/>
-        <item x="121"/>
-        <item x="72"/>
-        <item x="69"/>
-        <item x="95"/>
-        <item x="137"/>
-        <item x="173"/>
-        <item x="2"/>
-        <item x="38"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="13"/>
-        <item x="118"/>
-        <item x="203"/>
-        <item x="145"/>
-        <item x="32"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="descending">
-      <items count="233">
-        <item x="127"/>
-        <item x="125"/>
-        <item x="209"/>
-        <item x="115"/>
-        <item x="112"/>
-        <item x="226"/>
-        <item x="46"/>
-        <item x="214"/>
-        <item x="188"/>
-        <item x="229"/>
-        <item x="217"/>
-        <item x="194"/>
-        <item x="100"/>
-        <item x="161"/>
-        <item x="54"/>
-        <item x="69"/>
-        <item x="63"/>
-        <item x="21"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="40"/>
-        <item x="88"/>
-        <item x="34"/>
-        <item x="133"/>
-        <item x="26"/>
-        <item x="200"/>
-        <item x="104"/>
-        <item x="219"/>
-        <item x="14"/>
-        <item x="182"/>
-        <item x="20"/>
-        <item x="170"/>
-        <item x="53"/>
-        <item x="41"/>
-        <item x="135"/>
-        <item x="130"/>
-        <item x="67"/>
-        <item x="117"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="193"/>
-        <item x="68"/>
-        <item x="166"/>
-        <item x="2"/>
-        <item x="225"/>
-        <item x="35"/>
-        <item x="201"/>
-        <item x="55"/>
-        <item x="114"/>
-        <item x="128"/>
-        <item x="10"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="152"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="101"/>
-        <item x="160"/>
-        <item x="138"/>
-        <item x="106"/>
-        <item x="143"/>
-        <item x="120"/>
-        <item x="65"/>
-        <item x="80"/>
-        <item x="3"/>
-        <item x="31"/>
-        <item x="224"/>
-        <item x="6"/>
-        <item x="84"/>
-        <item x="99"/>
-        <item x="134"/>
-        <item x="145"/>
-        <item x="95"/>
-        <item x="87"/>
-        <item x="180"/>
-        <item x="124"/>
-        <item x="141"/>
-        <item x="18"/>
-        <item x="211"/>
-        <item x="56"/>
-        <item x="174"/>
-        <item x="98"/>
-        <item x="129"/>
-        <item x="57"/>
-        <item x="198"/>
-        <item x="49"/>
-        <item x="94"/>
-        <item x="75"/>
-        <item x="0"/>
-        <item x="210"/>
-        <item x="113"/>
-        <item x="172"/>
-        <item x="183"/>
-        <item x="132"/>
-        <item x="146"/>
-        <item x="220"/>
-        <item x="230"/>
-        <item x="64"/>
-        <item x="216"/>
-        <item x="1"/>
-        <item x="150"/>
-        <item x="158"/>
-        <item x="163"/>
-        <item x="24"/>
-        <item x="222"/>
-        <item x="22"/>
-        <item x="227"/>
-        <item x="191"/>
-        <item x="97"/>
-        <item x="79"/>
-        <item x="45"/>
-        <item x="189"/>
-        <item x="86"/>
-        <item x="58"/>
-        <item x="25"/>
-        <item x="107"/>
-        <item x="118"/>
-        <item x="60"/>
-        <item x="153"/>
-        <item x="59"/>
-        <item x="38"/>
-        <item x="111"/>
-        <item x="144"/>
-        <item x="11"/>
-        <item x="42"/>
-        <item x="108"/>
-        <item x="50"/>
-        <item x="137"/>
-        <item x="212"/>
-        <item x="142"/>
-        <item x="96"/>
-        <item x="176"/>
-        <item x="5"/>
-        <item x="203"/>
-        <item x="82"/>
-        <item x="140"/>
-        <item x="93"/>
-        <item x="196"/>
-        <item x="178"/>
-        <item x="110"/>
-        <item x="197"/>
-        <item x="121"/>
-        <item x="29"/>
-        <item x="184"/>
-        <item x="51"/>
-        <item x="185"/>
-        <item x="77"/>
-        <item x="28"/>
-        <item x="13"/>
-        <item x="179"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="76"/>
-        <item x="202"/>
-        <item x="92"/>
-        <item x="167"/>
-        <item x="16"/>
-        <item x="148"/>
-        <item x="74"/>
-        <item x="72"/>
-        <item x="171"/>
-        <item x="164"/>
-        <item x="48"/>
-        <item x="208"/>
-        <item x="78"/>
-        <item x="192"/>
-        <item x="187"/>
-        <item x="109"/>
-        <item x="73"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="154"/>
-        <item x="102"/>
-        <item x="139"/>
-        <item x="175"/>
-        <item x="32"/>
-        <item x="190"/>
-        <item x="147"/>
-        <item x="47"/>
-        <item x="199"/>
-        <item x="126"/>
-        <item x="136"/>
-        <item x="23"/>
-        <item x="91"/>
-        <item x="168"/>
-        <item x="195"/>
-        <item x="156"/>
-        <item x="186"/>
-        <item x="218"/>
-        <item x="173"/>
-        <item x="103"/>
-        <item x="165"/>
-        <item x="221"/>
-        <item x="204"/>
-        <item x="215"/>
-        <item x="8"/>
-        <item x="52"/>
-        <item x="85"/>
-        <item x="33"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="83"/>
-        <item x="4"/>
-        <item x="181"/>
-        <item x="231"/>
-        <item x="206"/>
-        <item x="61"/>
-        <item x="213"/>
-        <item x="105"/>
-        <item x="131"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="66"/>
-        <item x="207"/>
-        <item x="90"/>
-        <item x="36"/>
-        <item x="149"/>
-        <item x="37"/>
-        <item x="71"/>
-        <item x="228"/>
-        <item x="116"/>
-        <item x="123"/>
-        <item x="27"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="119"/>
-        <item x="7"/>
-        <item x="89"/>
-        <item x="162"/>
-        <item x="205"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="260">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="128"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="136"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="138"/>
-    </i>
-    <i>
-      <x v="139"/>
-    </i>
-    <i>
-      <x v="140"/>
-    </i>
-    <i>
-      <x v="141"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i>
-      <x v="143"/>
-    </i>
-    <i>
-      <x v="144"/>
-    </i>
-    <i>
-      <x v="145"/>
-    </i>
-    <i>
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="147"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="150"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="153"/>
-    </i>
-    <i>
-      <x v="154"/>
-    </i>
-    <i>
-      <x v="155"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="157"/>
-    </i>
-    <i>
-      <x v="158"/>
-    </i>
-    <i>
-      <x v="159"/>
-    </i>
-    <i>
-      <x v="160"/>
-    </i>
-    <i>
-      <x v="161"/>
-    </i>
-    <i>
-      <x v="162"/>
-    </i>
-    <i>
-      <x v="163"/>
-    </i>
-    <i>
-      <x v="164"/>
-    </i>
-    <i>
-      <x v="165"/>
-    </i>
-    <i>
-      <x v="166"/>
-    </i>
-    <i>
-      <x v="167"/>
-    </i>
-    <i>
-      <x v="168"/>
-    </i>
-    <i>
-      <x v="169"/>
-    </i>
-    <i>
-      <x v="170"/>
-    </i>
-    <i>
-      <x v="171"/>
-    </i>
-    <i>
-      <x v="172"/>
-    </i>
-    <i>
-      <x v="173"/>
-    </i>
-    <i>
-      <x v="174"/>
-    </i>
-    <i>
-      <x v="175"/>
-    </i>
-    <i>
-      <x v="176"/>
-    </i>
-    <i>
-      <x v="177"/>
-    </i>
-    <i>
-      <x v="178"/>
-    </i>
-    <i>
-      <x v="179"/>
-    </i>
-    <i>
-      <x v="180"/>
-    </i>
-    <i>
-      <x v="181"/>
-    </i>
-    <i>
-      <x v="182"/>
-    </i>
-    <i>
-      <x v="183"/>
-    </i>
-    <i>
-      <x v="184"/>
-    </i>
-    <i>
-      <x v="185"/>
-    </i>
-    <i>
-      <x v="186"/>
-    </i>
-    <i>
-      <x v="187"/>
-    </i>
-    <i>
-      <x v="188"/>
-    </i>
-    <i>
-      <x v="189"/>
-    </i>
-    <i>
-      <x v="190"/>
-    </i>
-    <i>
-      <x v="191"/>
-    </i>
-    <i>
-      <x v="192"/>
-    </i>
-    <i>
-      <x v="193"/>
-    </i>
-    <i>
-      <x v="194"/>
-    </i>
-    <i>
-      <x v="195"/>
-    </i>
-    <i>
-      <x v="196"/>
-    </i>
-    <i>
-      <x v="197"/>
-    </i>
-    <i>
-      <x v="198"/>
-    </i>
-    <i>
-      <x v="199"/>
-    </i>
-    <i>
-      <x v="200"/>
-    </i>
-    <i>
-      <x v="201"/>
-    </i>
-    <i>
-      <x v="202"/>
-    </i>
-    <i>
-      <x v="203"/>
-    </i>
-    <i>
-      <x v="204"/>
-    </i>
-    <i>
-      <x v="205"/>
-    </i>
-    <i>
-      <x v="206"/>
-    </i>
-    <i>
-      <x v="207"/>
-    </i>
-    <i>
-      <x v="208"/>
-    </i>
-    <i>
-      <x v="209"/>
-    </i>
-    <i>
-      <x v="210"/>
-    </i>
-    <i>
-      <x v="211"/>
-    </i>
-    <i>
-      <x v="212"/>
-    </i>
-    <i>
-      <x v="213"/>
-    </i>
-    <i>
-      <x v="214"/>
-    </i>
-    <i>
-      <x v="215"/>
-    </i>
-    <i>
-      <x v="216"/>
-    </i>
-    <i>
-      <x v="217"/>
-    </i>
-    <i>
-      <x v="218"/>
-    </i>
-    <i>
-      <x v="219"/>
-    </i>
-    <i>
-      <x v="220"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="222"/>
-    </i>
-    <i>
-      <x v="223"/>
-    </i>
-    <i>
-      <x v="224"/>
-    </i>
-    <i>
-      <x v="225"/>
-    </i>
-    <i>
-      <x v="226"/>
-    </i>
-    <i>
-      <x v="227"/>
-    </i>
-    <i>
-      <x v="228"/>
-    </i>
-    <i>
-      <x v="229"/>
-    </i>
-    <i>
-      <x v="230"/>
-    </i>
-    <i>
-      <x v="231"/>
-    </i>
-    <i>
-      <x v="232"/>
-    </i>
-    <i>
-      <x v="233"/>
-    </i>
-    <i>
-      <x v="234"/>
-    </i>
-    <i>
-      <x v="235"/>
-    </i>
-    <i>
-      <x v="236"/>
-    </i>
-    <i>
-      <x v="237"/>
-    </i>
-    <i>
-      <x v="238"/>
-    </i>
-    <i>
-      <x v="239"/>
-    </i>
-    <i>
-      <x v="240"/>
-    </i>
-    <i>
-      <x v="241"/>
-    </i>
-    <i>
-      <x v="242"/>
-    </i>
-    <i>
-      <x v="243"/>
-    </i>
-    <i>
-      <x v="244"/>
-    </i>
-    <i>
-      <x v="245"/>
-    </i>
-    <i>
-      <x v="246"/>
-    </i>
-    <i>
-      <x v="247"/>
-    </i>
-    <i>
-      <x v="248"/>
-    </i>
-    <i>
-      <x v="249"/>
-    </i>
-    <i>
-      <x v="250"/>
-    </i>
-    <i>
-      <x v="251"/>
-    </i>
-    <i>
-      <x v="252"/>
-    </i>
-    <i>
-      <x v="253"/>
-    </i>
-    <i>
-      <x v="254"/>
-    </i>
-    <i>
-      <x v="255"/>
-    </i>
-    <i>
-      <x v="256"/>
-    </i>
-    <i>
-      <x v="257"/>
-    </i>
-    <i>
-      <x v="258"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7429,1346 +446,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E73B646-3C69-2542-908D-A0E161ABE892}">
-  <dimension ref="A3:A263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="236" width="20" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="8" width="30.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7">
-        <v>6488.0209999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7">
-        <v>6396.2830000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7">
-        <v>6306.1530000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7">
-        <v>5512.0379999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7">
-        <v>4605.7489999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7">
-        <v>4573.7790000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7">
-        <v>4527.6869999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7">
-        <v>4519.6899999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7">
-        <v>4510.3590000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7">
-        <v>4449.2700000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7">
-        <v>4412.7650000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7">
-        <v>4197.3490000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7">
-        <v>4136.2709999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7">
-        <v>4082.0149999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7">
-        <v>4079.4180000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7">
-        <v>4074.7359999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7">
-        <v>4066.587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7">
-        <v>3947.9450000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7">
-        <v>3780.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7">
-        <v>3771.895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7">
-        <v>3529.5639999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7">
-        <v>3171.3290000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7">
-        <v>3085.17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7">
-        <v>3079.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7">
-        <v>3078.1759999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7">
-        <v>2707.3919999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7">
-        <v>2674.9609999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7">
-        <v>2615.4650000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="7">
-        <v>2469.645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7">
-        <v>2408.9929999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7">
-        <v>2288.011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7">
-        <v>2275.877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7">
-        <v>2261.4319999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7">
-        <v>2251.9380000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="7">
-        <v>2216.6120000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7">
-        <v>2185.1280000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="7">
-        <v>2180.2449999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="7">
-        <v>2179.59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7">
-        <v>2175.877</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7">
-        <v>2175.7440000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7">
-        <v>2175.0300000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7">
-        <v>2147.3760000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7">
-        <v>2103.5549999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7">
-        <v>2102.4270000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7">
-        <v>2077.39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7">
-        <v>1978.671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7">
-        <v>1962.6279999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7">
-        <v>1939.749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7">
-        <v>1935.009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7">
-        <v>1931.2070000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7">
-        <v>1867.2329999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7">
-        <v>1828.319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="7">
-        <v>1805.665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7">
-        <v>1801.5440000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7">
-        <v>1783.18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7">
-        <v>1758.4059999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7">
-        <v>1756.4110000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7">
-        <v>1735.595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7">
-        <v>1717.193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7">
-        <v>1712.6320000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7">
-        <v>1643.499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7">
-        <v>1626.0830000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7">
-        <v>1583.722</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7">
-        <v>1559.827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7">
-        <v>1554.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="7">
-        <v>1497.713</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7">
-        <v>1487.8679999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7">
-        <v>1485.097</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7">
-        <v>1455.798</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7">
-        <v>1449.722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="7">
-        <v>1447.2860000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7">
-        <v>1438.579</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7">
-        <v>1414.837</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="7">
-        <v>1406.43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="7">
-        <v>1402.0160000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7">
-        <v>1360.1389999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="7">
-        <v>1264.73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7">
-        <v>1236.5640000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7">
-        <v>1164.838</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7">
-        <v>1160.6320000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7">
-        <v>1159.454</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="7">
-        <v>1157.9880000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="7">
-        <v>1156.777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="7">
-        <v>1156.412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="7">
-        <v>1146.329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="7">
-        <v>1144.4359999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="7">
-        <v>1055.067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="7">
-        <v>1013.341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="7">
-        <v>1009.235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="7">
-        <v>995.75540000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="7">
-        <v>967.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="7">
-        <v>964.74959999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="7">
-        <v>942.46640000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="7">
-        <v>918.63570000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="7">
-        <v>837.72329999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="7">
-        <v>815.93140000000005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="7">
-        <v>804.68970000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="7">
-        <v>769.40340000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="7">
-        <v>757.33770000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="7">
-        <v>752.76689999999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="7">
-        <v>750.07039999999995</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="7">
-        <v>737.91610000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="7">
-        <v>732.8528</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="7">
-        <v>718.29369999999994</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="7">
-        <v>707.9067</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="7">
-        <v>665.06359999999995</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="7">
-        <v>642.69849999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="7">
-        <v>640.73910000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="7">
-        <v>640.60709999999995</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="7">
-        <v>639.61980000000005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="7">
-        <v>623.47310000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="7">
-        <v>617.71339999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="7">
-        <v>617.44240000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="7">
-        <v>616.57349999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="7">
-        <v>616.40039999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="7">
-        <v>614.13940000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="7">
-        <v>600.86040000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="7">
-        <v>592.50059999999996</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="7">
-        <v>590.92920000000004</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="7">
-        <v>587.8877</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="7">
-        <v>579.20830000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="7">
-        <v>577.9615</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="7">
-        <v>567.03489999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="7">
-        <v>563.28539999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="7">
-        <v>561.98450000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="7">
-        <v>557.47799999999995</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="7">
-        <v>552.43709999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="7">
-        <v>537.7971</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="7">
-        <v>535.52700000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="7">
-        <v>533.47619999999995</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="7">
-        <v>529.77710000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="7">
-        <v>519.46169999999995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="7">
-        <v>515.11220000000003</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="7">
-        <v>512.78710000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="7">
-        <v>512.54870000000005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="7">
-        <v>506.11439999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="7">
-        <v>493.65699999999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="7">
-        <v>492.23129999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="7">
-        <v>490.34460000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="7">
-        <v>489.88209999999998</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="7">
-        <v>488.8193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="7">
-        <v>488.5727</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="7">
-        <v>482.75810000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="7">
-        <v>480.6977</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="7">
-        <v>472.17450000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="7">
-        <v>464.22300000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="7">
-        <v>463.96230000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="7">
-        <v>461.78480000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="7">
-        <v>461.10160000000002</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="7">
-        <v>451.64190000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="7">
-        <v>451.24380000000002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="7">
-        <v>444.13339999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="7">
-        <v>443.80200000000002</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="7">
-        <v>439.71050000000002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="7">
-        <v>438.85129999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="7">
-        <v>432.0385</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="7">
-        <v>431.1114</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="7">
-        <v>424.71319999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="7">
-        <v>424.54419999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="7">
-        <v>421.47899999999998</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="7">
-        <v>414.94760000000002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="7">
-        <v>405.21339999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="7">
-        <v>401.88069999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="7">
-        <v>395.67469999999997</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="7">
-        <v>394.01729999999998</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="7">
-        <v>393.26060000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="7">
-        <v>392.44589999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="7">
-        <v>390.96960000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="7">
-        <v>390.5684</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="7">
-        <v>389.82190000000003</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="7">
-        <v>387.77210000000002</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="7">
-        <v>383.86239999999998</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="7">
-        <v>383.71289999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="7">
-        <v>383.28050000000002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="7">
-        <v>379.5575</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="7">
-        <v>377.83019999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="7">
-        <v>377.79559999999998</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="7">
-        <v>376.17090000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="7">
-        <v>373.83890000000002</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="7">
-        <v>373.39370000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="7">
-        <v>372.62419999999997</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="7">
-        <v>372.1386</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="7">
-        <v>371.24950000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="7">
-        <v>368.13630000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="7">
-        <v>350.85149999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="7">
-        <v>339.22890000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="7">
-        <v>338.96789999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="7">
-        <v>337.60160000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="7">
-        <v>336.0532</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="7">
-        <v>335.52730000000003</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="7">
-        <v>333.36790000000002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="7">
-        <v>330.08539999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="7">
-        <v>329.97469999999998</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="7">
-        <v>324.94189999999998</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="7">
-        <v>323.69119999999998</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="7">
-        <v>323.65499999999997</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="7">
-        <v>319.07080000000002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="7">
-        <v>318.5292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="7">
-        <v>312.8963</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="7">
-        <v>306.59469999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="7">
-        <v>292.99779999999998</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="7">
-        <v>289.32479999999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="7">
-        <v>287.60250000000002</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="7">
-        <v>281.20499999999998</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="7">
-        <v>279.17259999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="7">
-        <v>276.44900000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="7">
-        <v>274.01440000000002</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="7">
-        <v>272.67829999999998</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="7">
-        <v>270.8895</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="7">
-        <v>265.0609</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="7">
-        <v>259.66070000000002</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="7">
-        <v>258.18599999999998</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="7">
-        <v>252.5822</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="7">
-        <v>250.631</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="7">
-        <v>216.8329</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="7">
-        <v>211.44730000000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="7">
-        <v>208.3905</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="7">
-        <v>205.36699999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="7">
-        <v>204.1705</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="7">
-        <v>201.8939</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="7">
-        <v>197.13380000000001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="7">
-        <v>196.6172</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="7">
-        <v>193.58449999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="7">
-        <v>190.03919999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="7">
-        <v>189.5181</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="7">
-        <v>187.48230000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="7">
-        <v>186.96860000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="7">
-        <v>186.51009999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="7">
-        <v>185.42959999999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="7">
-        <v>184.33019999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="7">
-        <v>181.07660000000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="7">
-        <v>179.4538</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="7">
-        <v>175.6294</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="7">
-        <v>170.7311</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="7">
-        <v>170.12889999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="7">
-        <v>169.9803</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="7">
-        <v>167.59889999999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="7">
-        <v>161.94200000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="7">
-        <v>157.6052</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="7">
-        <v>156.24420000000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="7">
-        <v>150.93469999999999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="7">
-        <v>143.8383</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="7">
-        <v>132.54689999999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="7">
-        <v>130.99449999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="7">
-        <v>126.7286</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="7">
-        <v>124.99120000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="7">
-        <v>123.74290000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="7">
-        <v>122.36190000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="7">
-        <v>121.72620000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="7">
-        <v>109.9455</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="7">
-        <v>104.81010000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="7">
-        <v>90.456059999999994</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="7">
-        <v>87.302220000000005</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="7">
-        <v>84.878820000000005</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="7">
-        <v>82.886430000000004</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="7">
-        <v>57.589449999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="7">
-        <v>56.474249999999998</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="7">
-        <v>49.661050000000003</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="7">
-        <v>23.382840000000002</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H415"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="8" width="30.83203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
